--- a/BackTest/2019-10-26 BackTest RDN.xlsx
+++ b/BackTest/2019-10-26 BackTest RDN.xlsx
@@ -451,17 +451,13 @@
         <v>176.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>178</v>
-      </c>
-      <c r="K2" t="n">
-        <v>178</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,14 +492,8 @@
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>178</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -537,14 +527,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>178</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -578,14 +562,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>178</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,14 +597,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>178</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -657,17 +629,11 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>178</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -698,17 +664,11 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>178</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -742,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>178</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>178</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -824,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>178</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -865,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>178</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -906,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>178</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -947,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>178</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -988,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>178</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1026,19 +944,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>178</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>1.00623595505618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1102,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1172,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1277,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1312,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1382,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1417,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1452,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1487,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1522,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1557,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1662,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -3307,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3377,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -4704,13 +4616,17 @@
         <v>173.6</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>173</v>
+      </c>
+      <c r="K121" t="n">
+        <v>173</v>
+      </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
@@ -4739,14 +4655,22 @@
         <v>173.4</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>177</v>
+      </c>
+      <c r="K122" t="n">
+        <v>173</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4780,8 +4704,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>173</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4815,8 +4745,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>173</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4844,18 +4780,18 @@
         <v>174.6</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>175</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>173</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -4885,15 +4821,15 @@
         <v>173.8</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>174</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>173</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,7 +4868,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>173</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4965,15 +4903,15 @@
         <v>175.4</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>175</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>173</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5012,7 +4950,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>173</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5051,7 +4991,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>173</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5090,7 +5032,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>173</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5129,7 +5073,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>173</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,7 +5114,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>173</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5207,7 +5155,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>173</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5246,7 +5196,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>173</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5285,7 +5237,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>173</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5324,7 +5278,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>173</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5363,7 +5319,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>173</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5402,7 +5360,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>173</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5441,7 +5401,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>173</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5480,7 +5442,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>173</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5519,7 +5483,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>173</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5558,7 +5524,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>173</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5597,7 +5565,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>173</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5636,7 +5606,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>173</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5675,7 +5647,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>173</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5714,7 +5688,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>173</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5753,7 +5729,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>173</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5792,7 +5770,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>173</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5831,7 +5811,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>173</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5870,7 +5852,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>173</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5909,7 +5893,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>173</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5948,7 +5934,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>173</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5987,7 +5975,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>173</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6026,7 +6016,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>173</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6065,7 +6057,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>173</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6104,7 +6098,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>173</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6143,7 +6139,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>173</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6182,7 +6180,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>173</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6221,7 +6221,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>173</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6260,7 +6262,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>173</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6299,7 +6303,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>173</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6338,7 +6344,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>173</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6377,7 +6385,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>173</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6416,7 +6426,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>173</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6455,7 +6467,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>173</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6494,7 +6508,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>173</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6533,7 +6549,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>173</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6572,7 +6590,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>173</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6611,7 +6631,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>173</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6650,7 +6672,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>173</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6689,7 +6713,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>173</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6728,7 +6754,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>173</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6767,7 +6795,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>173</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6806,7 +6836,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>173</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6845,7 +6877,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>173</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6884,7 +6918,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>173</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6923,7 +6959,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>173</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6962,7 +7000,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>173</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7001,7 +7041,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>173</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7040,7 +7082,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>173</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7079,7 +7123,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>173</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7118,7 +7164,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>173</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7157,7 +7205,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>173</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7196,7 +7246,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>173</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7235,7 +7287,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>173</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7274,7 +7328,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>173</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7313,7 +7369,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>173</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7352,7 +7410,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>173</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7391,7 +7451,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>173</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7430,7 +7492,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>173</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7469,7 +7533,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>173</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7508,7 +7574,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>173</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7547,7 +7615,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>173</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7586,7 +7656,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>173</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7625,7 +7697,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>173</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7664,7 +7738,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>173</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7703,7 +7779,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>173</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7742,7 +7820,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>173</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7781,7 +7861,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>173</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7820,7 +7902,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>173</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7859,7 +7943,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>173</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7895,330 +7981,388 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>173</v>
+      </c>
       <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>182</v>
+      </c>
+      <c r="C204" t="n">
+        <v>182</v>
+      </c>
+      <c r="D204" t="n">
+        <v>182</v>
+      </c>
+      <c r="E204" t="n">
+        <v>182</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>173</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>182</v>
+      </c>
+      <c r="C205" t="n">
+        <v>182</v>
+      </c>
+      <c r="D205" t="n">
+        <v>182</v>
+      </c>
+      <c r="E205" t="n">
+        <v>182</v>
+      </c>
+      <c r="F205" t="n">
+        <v>523.7987000000001</v>
+      </c>
+      <c r="G205" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>173</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>182</v>
+      </c>
+      <c r="C206" t="n">
+        <v>182</v>
+      </c>
+      <c r="D206" t="n">
+        <v>182</v>
+      </c>
+      <c r="E206" t="n">
+        <v>182</v>
+      </c>
+      <c r="F206" t="n">
+        <v>958.4234</v>
+      </c>
+      <c r="G206" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>173</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>182</v>
+      </c>
+      <c r="C207" t="n">
+        <v>184</v>
+      </c>
+      <c r="D207" t="n">
+        <v>184</v>
+      </c>
+      <c r="E207" t="n">
+        <v>182</v>
+      </c>
+      <c r="F207" t="n">
+        <v>12.70108695652174</v>
+      </c>
+      <c r="G207" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>173</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>182</v>
+      </c>
+      <c r="C208" t="n">
+        <v>182</v>
+      </c>
+      <c r="D208" t="n">
+        <v>182</v>
+      </c>
+      <c r="E208" t="n">
+        <v>182</v>
+      </c>
+      <c r="F208" t="n">
+        <v>722.9999</v>
+      </c>
+      <c r="G208" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>173</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>184</v>
+      </c>
+      <c r="C209" t="n">
+        <v>185</v>
+      </c>
+      <c r="D209" t="n">
+        <v>185</v>
+      </c>
+      <c r="E209" t="n">
+        <v>184</v>
+      </c>
+      <c r="F209" t="n">
+        <v>5206.899813043478</v>
+      </c>
+      <c r="G209" t="n">
+        <v>183</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>173</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>184</v>
+      </c>
+      <c r="C210" t="n">
+        <v>183</v>
+      </c>
+      <c r="D210" t="n">
+        <v>186</v>
+      </c>
+      <c r="E210" t="n">
+        <v>183</v>
+      </c>
+      <c r="F210" t="n">
+        <v>18211.5429</v>
+      </c>
+      <c r="G210" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>173</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>184</v>
+      </c>
+      <c r="C211" t="n">
+        <v>183</v>
+      </c>
+      <c r="D211" t="n">
+        <v>184</v>
+      </c>
+      <c r="E211" t="n">
+        <v>183</v>
+      </c>
+      <c r="F211" t="n">
+        <v>272</v>
+      </c>
+      <c r="G211" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>173</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>183</v>
+      </c>
+      <c r="C212" t="n">
+        <v>183</v>
+      </c>
+      <c r="D212" t="n">
+        <v>183</v>
+      </c>
+      <c r="E212" t="n">
+        <v>183</v>
+      </c>
+      <c r="F212" t="n">
+        <v>792.9028</v>
+      </c>
+      <c r="G212" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>173</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>182</v>
-      </c>
-      <c r="C204" t="n">
-        <v>182</v>
-      </c>
-      <c r="D204" t="n">
-        <v>182</v>
-      </c>
-      <c r="E204" t="n">
-        <v>182</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G204" t="n">
-        <v>181.6</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>182</v>
-      </c>
-      <c r="C205" t="n">
-        <v>182</v>
-      </c>
-      <c r="D205" t="n">
-        <v>182</v>
-      </c>
-      <c r="E205" t="n">
-        <v>182</v>
-      </c>
-      <c r="F205" t="n">
-        <v>523.7987000000001</v>
-      </c>
-      <c r="G205" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>182</v>
-      </c>
-      <c r="C206" t="n">
-        <v>182</v>
-      </c>
-      <c r="D206" t="n">
-        <v>182</v>
-      </c>
-      <c r="E206" t="n">
-        <v>182</v>
-      </c>
-      <c r="F206" t="n">
-        <v>958.4234</v>
-      </c>
-      <c r="G206" t="n">
-        <v>181.6</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>182</v>
-      </c>
-      <c r="C207" t="n">
-        <v>184</v>
-      </c>
-      <c r="D207" t="n">
-        <v>184</v>
-      </c>
-      <c r="E207" t="n">
-        <v>182</v>
-      </c>
-      <c r="F207" t="n">
-        <v>12.70108695652174</v>
-      </c>
-      <c r="G207" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>182</v>
-      </c>
-      <c r="C208" t="n">
-        <v>182</v>
-      </c>
-      <c r="D208" t="n">
-        <v>182</v>
-      </c>
-      <c r="E208" t="n">
-        <v>182</v>
-      </c>
-      <c r="F208" t="n">
-        <v>722.9999</v>
-      </c>
-      <c r="G208" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>184</v>
-      </c>
-      <c r="C209" t="n">
-        <v>185</v>
-      </c>
-      <c r="D209" t="n">
-        <v>185</v>
-      </c>
-      <c r="E209" t="n">
-        <v>184</v>
-      </c>
-      <c r="F209" t="n">
-        <v>5206.899813043478</v>
-      </c>
-      <c r="G209" t="n">
-        <v>183</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>184</v>
-      </c>
-      <c r="C210" t="n">
-        <v>183</v>
-      </c>
-      <c r="D210" t="n">
-        <v>186</v>
-      </c>
-      <c r="E210" t="n">
-        <v>183</v>
-      </c>
-      <c r="F210" t="n">
-        <v>18211.5429</v>
-      </c>
-      <c r="G210" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>184</v>
-      </c>
-      <c r="C211" t="n">
-        <v>183</v>
-      </c>
-      <c r="D211" t="n">
-        <v>184</v>
-      </c>
-      <c r="E211" t="n">
-        <v>183</v>
-      </c>
-      <c r="F211" t="n">
-        <v>272</v>
-      </c>
-      <c r="G211" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>183</v>
-      </c>
-      <c r="C212" t="n">
-        <v>183</v>
-      </c>
-      <c r="D212" t="n">
-        <v>183</v>
-      </c>
-      <c r="E212" t="n">
-        <v>183</v>
-      </c>
-      <c r="F212" t="n">
-        <v>792.9028</v>
-      </c>
-      <c r="G212" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
-        <v>1</v>
+        <v>1.052803468208093</v>
       </c>
     </row>
     <row r="213">
@@ -11149,17 +11293,13 @@
         <v>172</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>173</v>
-      </c>
-      <c r="K296" t="n">
-        <v>173</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
@@ -11199,11 +11339,7 @@
       <c r="K297" t="n">
         <v>173</v>
       </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11285,7 +11421,11 @@
       <c r="K299" t="n">
         <v>173</v>
       </c>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11324,11 +11464,7 @@
       <c r="K300" t="n">
         <v>173</v>
       </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11362,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K301" t="n">
         <v>173</v>
@@ -11399,14 +11535,12 @@
         <v>173</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>173</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
         <v>173</v>
       </c>
@@ -11442,14 +11576,12 @@
         <v>172.6</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>171</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
         <v>173</v>
       </c>
@@ -11485,14 +11617,12 @@
         <v>173.2</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>173</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
         <v>173</v>
       </c>
@@ -11528,14 +11658,12 @@
         <v>173.4</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>174</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
         <v>173</v>
       </c>
@@ -11571,14 +11699,12 @@
         <v>174</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>176</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
         <v>173</v>
       </c>
@@ -11614,14 +11740,12 @@
         <v>174.2</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>174</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
         <v>173</v>
       </c>
@@ -11657,14 +11781,12 @@
         <v>175.2</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>176</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
         <v>173</v>
       </c>
@@ -11700,14 +11822,12 @@
         <v>174.6</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>173</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
         <v>173</v>
       </c>
@@ -11743,14 +11863,12 @@
         <v>175</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>175</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
         <v>173</v>
       </c>
@@ -11786,14 +11904,12 @@
         <v>174.8</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>175</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
         <v>173</v>
       </c>
@@ -11829,14 +11945,12 @@
         <v>175.2</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>176</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
         <v>173</v>
       </c>
@@ -11872,14 +11986,12 @@
         <v>174.6</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>175</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
         <v>173</v>
       </c>
@@ -11915,14 +12027,12 @@
         <v>175</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>172</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
         <v>173</v>
       </c>
@@ -11958,14 +12068,12 @@
         <v>174.6</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>174</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
         <v>173</v>
       </c>
@@ -12001,14 +12109,12 @@
         <v>174.4</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>174</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
         <v>173</v>
       </c>

--- a/BackTest/2019-10-26 BackTest RDN.xlsx
+++ b/BackTest/2019-10-26 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M316"/>
+  <dimension ref="A1:M317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" t="n">
         <v>178</v>
@@ -442,16 +442,16 @@
         <v>178</v>
       </c>
       <c r="E2" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" t="n">
-        <v>2780.0786</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>176.4</v>
+        <v>174.3666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>178</v>
       </c>
       <c r="F3" t="n">
-        <v>1457.9999</v>
+        <v>2780.0786</v>
       </c>
       <c r="G3" t="n">
-        <v>176.8</v>
+        <v>174.4333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" t="n">
         <v>178</v>
       </c>
       <c r="D4" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" t="n">
         <v>178</v>
       </c>
       <c r="F4" t="n">
-        <v>5360.3183</v>
+        <v>1457.9999</v>
       </c>
       <c r="G4" t="n">
-        <v>177.4</v>
+        <v>174.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -541,25 +541,25 @@
         <v>179</v>
       </c>
       <c r="C5" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" t="n">
         <v>179</v>
       </c>
       <c r="E5" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" t="n">
-        <v>2569.2359</v>
+        <v>5360.3183</v>
       </c>
       <c r="G5" t="n">
-        <v>178.2</v>
+        <v>174.5666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -576,25 +576,25 @@
         <v>179</v>
       </c>
       <c r="C6" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" t="n">
         <v>179</v>
       </c>
       <c r="E6" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F6" t="n">
-        <v>999</v>
+        <v>2569.2359</v>
       </c>
       <c r="G6" t="n">
-        <v>178.2</v>
+        <v>174.65</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" t="n">
         <v>178</v>
       </c>
       <c r="D7" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E7" t="n">
         <v>178</v>
       </c>
       <c r="F7" t="n">
-        <v>2600</v>
+        <v>999</v>
       </c>
       <c r="G7" t="n">
-        <v>178.2</v>
+        <v>174.7166666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>178</v>
       </c>
       <c r="F8" t="n">
-        <v>1100</v>
+        <v>2600</v>
       </c>
       <c r="G8" t="n">
-        <v>178.2</v>
+        <v>174.7833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>178</v>
       </c>
       <c r="F9" t="n">
-        <v>2900</v>
+        <v>1100</v>
       </c>
       <c r="G9" t="n">
-        <v>178.2</v>
+        <v>174.85</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -725,16 +725,16 @@
         <v>178</v>
       </c>
       <c r="F10" t="n">
-        <v>200</v>
+        <v>2900</v>
       </c>
       <c r="G10" t="n">
-        <v>178</v>
+        <v>174.9166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -751,25 +751,25 @@
         <v>178</v>
       </c>
       <c r="C11" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D11" t="n">
         <v>178</v>
       </c>
       <c r="E11" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F11" t="n">
-        <v>7070.2636</v>
+        <v>200</v>
       </c>
       <c r="G11" t="n">
-        <v>177.8</v>
+        <v>174.9833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F12" t="n">
-        <v>134.8189</v>
+        <v>7070.2636</v>
       </c>
       <c r="G12" t="n">
-        <v>178</v>
+        <v>175.0333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F13" t="n">
-        <v>46</v>
+        <v>134.8189</v>
       </c>
       <c r="G13" t="n">
-        <v>178.4</v>
+        <v>175.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>178</v>
       </c>
       <c r="C14" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D14" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E14" t="n">
         <v>178</v>
       </c>
       <c r="F14" t="n">
-        <v>2808.9886</v>
+        <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>178.4</v>
+        <v>175.1833333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>178</v>
       </c>
       <c r="C15" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D15" t="n">
         <v>178</v>
       </c>
       <c r="E15" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F15" t="n">
-        <v>1621.7967</v>
+        <v>2808.9886</v>
       </c>
       <c r="G15" t="n">
-        <v>178.2</v>
+        <v>175.2333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D16" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16" t="n">
         <v>177</v>
       </c>
       <c r="F16" t="n">
-        <v>3040.8935</v>
+        <v>1621.7967</v>
       </c>
       <c r="G16" t="n">
-        <v>178.8</v>
+        <v>175.2666666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D17" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E17" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17" t="n">
-        <v>300</v>
+        <v>3040.8935</v>
       </c>
       <c r="G17" t="n">
-        <v>178.6</v>
+        <v>175.35</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C18" t="n">
         <v>178</v>
       </c>
       <c r="D18" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E18" t="n">
         <v>178</v>
       </c>
       <c r="F18" t="n">
-        <v>1555.9999</v>
+        <v>300</v>
       </c>
       <c r="G18" t="n">
-        <v>178.2</v>
+        <v>175.3833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>178</v>
       </c>
       <c r="F19" t="n">
-        <v>1764.2472</v>
+        <v>1555.9999</v>
       </c>
       <c r="G19" t="n">
-        <v>178.2</v>
+        <v>175.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>178</v>
       </c>
       <c r="F20" t="n">
-        <v>1650.1328</v>
+        <v>1764.2472</v>
       </c>
       <c r="G20" t="n">
-        <v>178.4</v>
+        <v>175.3833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D21" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E21" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" t="n">
-        <v>500</v>
+        <v>1650.1328</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4</v>
+        <v>175.4333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D22" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E22" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F22" t="n">
-        <v>402</v>
+        <v>500</v>
       </c>
       <c r="G22" t="n">
-        <v>178.4</v>
+        <v>175.5333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>178</v>
       </c>
       <c r="F23" t="n">
-        <v>98</v>
+        <v>402</v>
       </c>
       <c r="G23" t="n">
-        <v>178.4</v>
+        <v>175.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F24" t="n">
-        <v>566.817</v>
+        <v>98</v>
       </c>
       <c r="G24" t="n">
-        <v>178.6</v>
+        <v>175.65</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>179</v>
       </c>
       <c r="F25" t="n">
-        <v>1723.2798</v>
+        <v>566.817</v>
       </c>
       <c r="G25" t="n">
-        <v>178.8</v>
+        <v>175.75</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>179</v>
       </c>
       <c r="F26" t="n">
-        <v>1823.879</v>
+        <v>1723.2798</v>
       </c>
       <c r="G26" t="n">
-        <v>178.6</v>
+        <v>175.8333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F27" t="n">
-        <v>2661.1088</v>
+        <v>1823.879</v>
       </c>
       <c r="G27" t="n">
-        <v>179</v>
+        <v>175.9166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>180</v>
       </c>
       <c r="C28" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D28" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F28" t="n">
-        <v>9777.585768508286</v>
+        <v>2661.1088</v>
       </c>
       <c r="G28" t="n">
-        <v>179.2</v>
+        <v>176.0166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C29" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D29" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E29" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F29" t="n">
-        <v>976</v>
+        <v>9777.585768508286</v>
       </c>
       <c r="G29" t="n">
-        <v>179</v>
+        <v>176.1166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>178</v>
       </c>
       <c r="F30" t="n">
-        <v>47.9258</v>
+        <v>976</v>
       </c>
       <c r="G30" t="n">
-        <v>178.8</v>
+        <v>176.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>178</v>
       </c>
       <c r="F31" t="n">
-        <v>440</v>
+        <v>47.9258</v>
       </c>
       <c r="G31" t="n">
-        <v>178.6</v>
+        <v>176.2833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>178</v>
       </c>
       <c r="F32" t="n">
-        <v>21.184</v>
+        <v>440</v>
       </c>
       <c r="G32" t="n">
-        <v>178.2</v>
+        <v>176.3666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>178</v>
       </c>
       <c r="F33" t="n">
-        <v>398.9686</v>
+        <v>21.184</v>
       </c>
       <c r="G33" t="n">
-        <v>178</v>
+        <v>176.45</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>178</v>
       </c>
       <c r="F34" t="n">
-        <v>519.6435</v>
+        <v>398.9686</v>
       </c>
       <c r="G34" t="n">
-        <v>178</v>
+        <v>176.55</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C35" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D35" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E35" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F35" t="n">
-        <v>735</v>
+        <v>519.6435</v>
       </c>
       <c r="G35" t="n">
-        <v>177.8</v>
+        <v>176.6333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>177</v>
       </c>
       <c r="F36" t="n">
-        <v>256.227</v>
+        <v>735</v>
       </c>
       <c r="G36" t="n">
-        <v>177.6</v>
+        <v>176.6833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C37" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D37" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E37" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>256.227</v>
       </c>
       <c r="G37" t="n">
-        <v>177.6</v>
+        <v>176.7333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,31 +1693,35 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C38" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D38" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E38" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F38" t="n">
-        <v>1496.031</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>177.4</v>
+        <v>176.8</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>177</v>
+      </c>
+      <c r="K38" t="n">
+        <v>177</v>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1740,10 +1744,10 @@
         <v>177</v>
       </c>
       <c r="F39" t="n">
-        <v>1157.268</v>
+        <v>1496.031</v>
       </c>
       <c r="G39" t="n">
-        <v>177.2</v>
+        <v>176.85</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1756,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>177</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1773,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C40" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D40" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E40" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F40" t="n">
-        <v>214.7216</v>
+        <v>1157.268</v>
       </c>
       <c r="G40" t="n">
-        <v>177.8</v>
+        <v>176.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1797,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>177</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1807,13 +1823,13 @@
         <v>180</v>
       </c>
       <c r="E41" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F41" t="n">
-        <v>8458.5808</v>
+        <v>214.7216</v>
       </c>
       <c r="G41" t="n">
-        <v>178.4</v>
+        <v>177</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1842,13 +1858,13 @@
         <v>180</v>
       </c>
       <c r="E42" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7524999999999999</v>
+        <v>8458.5808</v>
       </c>
       <c r="G42" t="n">
-        <v>178.8</v>
+        <v>177.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C43" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D43" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E43" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F43" t="n">
-        <v>54.3194</v>
+        <v>0.7524999999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>179</v>
+        <v>177.2166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1931,10 @@
         <v>178</v>
       </c>
       <c r="F44" t="n">
-        <v>4266</v>
+        <v>54.3194</v>
       </c>
       <c r="G44" t="n">
-        <v>179.2</v>
+        <v>177.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1966,10 @@
         <v>178</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8688</v>
+        <v>4266</v>
       </c>
       <c r="G45" t="n">
-        <v>178.8</v>
+        <v>177.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1989,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C46" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D46" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E46" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F46" t="n">
-        <v>0.732</v>
+        <v>0.8688</v>
       </c>
       <c r="G46" t="n">
-        <v>178.2</v>
+        <v>177.4666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2036,10 @@
         <v>177</v>
       </c>
       <c r="F47" t="n">
-        <v>1651.5254</v>
+        <v>0.732</v>
       </c>
       <c r="G47" t="n">
-        <v>177.6</v>
+        <v>177.5166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C48" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D48" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E48" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F48" t="n">
-        <v>300</v>
+        <v>1651.5254</v>
       </c>
       <c r="G48" t="n">
-        <v>177.6</v>
+        <v>177.55</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2106,10 @@
         <v>178</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G49" t="n">
-        <v>177.6</v>
+        <v>177.6166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C50" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D50" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E50" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F50" t="n">
-        <v>4156.25</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>177.2</v>
+        <v>177.6833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2164,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C51" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D51" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E51" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F51" t="n">
-        <v>5164.3812</v>
+        <v>4156.25</v>
       </c>
       <c r="G51" t="n">
-        <v>177.2</v>
+        <v>177.7166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2189,16 +2205,16 @@
         <v>177</v>
       </c>
       <c r="D52" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E52" t="n">
         <v>177</v>
       </c>
       <c r="F52" t="n">
-        <v>530.8425</v>
+        <v>5164.3812</v>
       </c>
       <c r="G52" t="n">
-        <v>177.2</v>
+        <v>177.7666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C53" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D53" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E53" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F53" t="n">
-        <v>19098.561</v>
+        <v>530.8425</v>
       </c>
       <c r="G53" t="n">
-        <v>177.6</v>
+        <v>177.8166666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,7 +2269,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C54" t="n">
         <v>180</v>
@@ -2262,13 +2278,13 @@
         <v>180</v>
       </c>
       <c r="E54" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F54" t="n">
-        <v>400</v>
+        <v>19098.561</v>
       </c>
       <c r="G54" t="n">
-        <v>178</v>
+        <v>177.8833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2307,19 @@
         <v>180</v>
       </c>
       <c r="C55" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D55" t="n">
         <v>180</v>
       </c>
       <c r="E55" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F55" t="n">
-        <v>6616.5583</v>
+        <v>400</v>
       </c>
       <c r="G55" t="n">
-        <v>178.2</v>
+        <v>177.95</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2339,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C56" t="n">
         <v>177</v>
       </c>
       <c r="D56" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E56" t="n">
         <v>177</v>
       </c>
       <c r="F56" t="n">
-        <v>300</v>
+        <v>6616.5583</v>
       </c>
       <c r="G56" t="n">
-        <v>178.2</v>
+        <v>178</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2374,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C57" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D57" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E57" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F57" t="n">
-        <v>1.2722</v>
+        <v>300</v>
       </c>
       <c r="G57" t="n">
-        <v>178.8</v>
+        <v>178.0166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C58" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D58" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E58" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F58" t="n">
-        <v>2945.9002</v>
+        <v>1.2722</v>
       </c>
       <c r="G58" t="n">
-        <v>178</v>
+        <v>178.0666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2447,19 @@
         <v>177</v>
       </c>
       <c r="C59" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" t="n">
         <v>177</v>
       </c>
       <c r="E59" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F59" t="n">
-        <v>1994.5789</v>
+        <v>2945.9002</v>
       </c>
       <c r="G59" t="n">
-        <v>177.4</v>
+        <v>178.0666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2491,10 @@
         <v>177</v>
       </c>
       <c r="F60" t="n">
-        <v>8271.999900000001</v>
+        <v>1994.5789</v>
       </c>
       <c r="G60" t="n">
-        <v>177.4</v>
+        <v>178.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2517,19 @@
         <v>177</v>
       </c>
       <c r="C61" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" t="n">
         <v>177</v>
       </c>
       <c r="E61" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F61" t="n">
-        <v>1941.4842</v>
+        <v>8271.999900000001</v>
       </c>
       <c r="G61" t="n">
-        <v>177.2</v>
+        <v>178.1333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C62" t="n">
         <v>176</v>
       </c>
       <c r="D62" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E62" t="n">
         <v>176</v>
       </c>
       <c r="F62" t="n">
-        <v>1943.6752</v>
+        <v>1941.4842</v>
       </c>
       <c r="G62" t="n">
-        <v>176.4</v>
+        <v>178.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C63" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D63" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E63" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F63" t="n">
-        <v>4259.5223</v>
+        <v>1943.6752</v>
       </c>
       <c r="G63" t="n">
-        <v>176.8</v>
+        <v>178.0666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2619,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C64" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D64" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E64" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F64" t="n">
-        <v>3503.0634</v>
+        <v>4259.5223</v>
       </c>
       <c r="G64" t="n">
-        <v>176.6</v>
+        <v>178.0666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C65" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D65" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E65" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F65" t="n">
-        <v>2208.3861</v>
+        <v>3503.0634</v>
       </c>
       <c r="G65" t="n">
-        <v>177.2</v>
+        <v>178.0333333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C66" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D66" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E66" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F66" t="n">
-        <v>1134.0763</v>
+        <v>2208.3861</v>
       </c>
       <c r="G66" t="n">
-        <v>177.6</v>
+        <v>178.05</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C67" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D67" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E67" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F67" t="n">
-        <v>1269.0188</v>
+        <v>1134.0763</v>
       </c>
       <c r="G67" t="n">
-        <v>178.2</v>
+        <v>178.05</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2771,10 @@
         <v>179</v>
       </c>
       <c r="F68" t="n">
-        <v>1346</v>
+        <v>1269.0188</v>
       </c>
       <c r="G68" t="n">
-        <v>178.4</v>
+        <v>178.0666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2806,10 @@
         <v>179</v>
       </c>
       <c r="F69" t="n">
-        <v>3402.6033</v>
+        <v>1346</v>
       </c>
       <c r="G69" t="n">
-        <v>179</v>
+        <v>178.0833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2841,10 @@
         <v>179</v>
       </c>
       <c r="F70" t="n">
-        <v>3685.3742</v>
+        <v>3402.6033</v>
       </c>
       <c r="G70" t="n">
-        <v>178.8</v>
+        <v>178.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2864,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C71" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D71" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E71" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F71" t="n">
-        <v>2339.3702</v>
+        <v>3685.3742</v>
       </c>
       <c r="G71" t="n">
-        <v>178.8</v>
+        <v>178.1166666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2902,19 @@
         <v>178</v>
       </c>
       <c r="C72" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D72" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E72" t="n">
         <v>178</v>
       </c>
       <c r="F72" t="n">
-        <v>2.2255</v>
+        <v>2339.3702</v>
       </c>
       <c r="G72" t="n">
-        <v>179</v>
+        <v>178.1333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2946,10 @@
         <v>178</v>
       </c>
       <c r="F73" t="n">
-        <v>1182.0444</v>
+        <v>2.2255</v>
       </c>
       <c r="G73" t="n">
-        <v>179.2</v>
+        <v>178.15</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2969,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C74" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D74" t="n">
         <v>180</v>
       </c>
       <c r="E74" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F74" t="n">
-        <v>3392.555555555556</v>
+        <v>1182.0444</v>
       </c>
       <c r="G74" t="n">
-        <v>179.2</v>
+        <v>178.15</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3004,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C75" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D75" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E75" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F75" t="n">
-        <v>1781.1067</v>
+        <v>3392.555555555556</v>
       </c>
       <c r="G75" t="n">
-        <v>179</v>
+        <v>178.1666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C76" t="n">
         <v>178</v>
       </c>
       <c r="D76" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E76" t="n">
         <v>178</v>
       </c>
       <c r="F76" t="n">
-        <v>3190</v>
+        <v>1781.1067</v>
       </c>
       <c r="G76" t="n">
-        <v>179</v>
+        <v>178.1833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C77" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D77" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E77" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F77" t="n">
-        <v>5862.642044444445</v>
+        <v>3190</v>
       </c>
       <c r="G77" t="n">
-        <v>179</v>
+        <v>178.15</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C78" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D78" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E78" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F78" t="n">
-        <v>13013.7218</v>
+        <v>5862.642044444445</v>
       </c>
       <c r="G78" t="n">
-        <v>179.2</v>
+        <v>178.1833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3147,19 @@
         <v>182</v>
       </c>
       <c r="C79" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D79" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E79" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F79" t="n">
-        <v>16</v>
+        <v>13013.7218</v>
       </c>
       <c r="G79" t="n">
-        <v>179.8</v>
+        <v>178.2333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C80" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D80" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E80" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F80" t="n">
-        <v>5.985</v>
+        <v>16</v>
       </c>
       <c r="G80" t="n">
-        <v>180</v>
+        <v>178.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C81" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D81" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E81" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F81" t="n">
-        <v>30.4667</v>
+        <v>5.985</v>
       </c>
       <c r="G81" t="n">
-        <v>180.4</v>
+        <v>178.3166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C82" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D82" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E82" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F82" t="n">
-        <v>3235.571</v>
+        <v>30.4667</v>
       </c>
       <c r="G82" t="n">
-        <v>181</v>
+        <v>178.3166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3287,19 @@
         <v>181</v>
       </c>
       <c r="C83" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D83" t="n">
+        <v>183</v>
+      </c>
+      <c r="E83" t="n">
         <v>181</v>
       </c>
-      <c r="E83" t="n">
-        <v>178</v>
-      </c>
       <c r="F83" t="n">
-        <v>1615.3939</v>
+        <v>3235.571</v>
       </c>
       <c r="G83" t="n">
-        <v>180.4</v>
+        <v>178.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3322,19 @@
         <v>181</v>
       </c>
       <c r="C84" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D84" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E84" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F84" t="n">
-        <v>4925.644808743169</v>
+        <v>1615.3939</v>
       </c>
       <c r="G84" t="n">
-        <v>180.6</v>
+        <v>178.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>181</v>
+      </c>
+      <c r="C85" t="n">
         <v>183</v>
       </c>
-      <c r="C85" t="n">
-        <v>180</v>
-      </c>
       <c r="D85" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E85" t="n">
         <v>180</v>
       </c>
       <c r="F85" t="n">
-        <v>23489.08829125683</v>
+        <v>4925.644808743169</v>
       </c>
       <c r="G85" t="n">
-        <v>180.8</v>
+        <v>178.4666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C86" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D86" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E86" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F86" t="n">
-        <v>392.9782</v>
+        <v>23489.08829125683</v>
       </c>
       <c r="G86" t="n">
-        <v>181</v>
+        <v>178.4833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>185</v>
+      </c>
+      <c r="C87" t="n">
         <v>181</v>
       </c>
-      <c r="C87" t="n">
-        <v>180</v>
-      </c>
       <c r="D87" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E87" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F87" t="n">
-        <v>1724.1501</v>
+        <v>392.9782</v>
       </c>
       <c r="G87" t="n">
-        <v>180.4</v>
+        <v>178.5166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C88" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D88" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E88" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F88" t="n">
-        <v>5628.0287</v>
+        <v>1724.1501</v>
       </c>
       <c r="G88" t="n">
-        <v>180.6</v>
+        <v>178.5166666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C89" t="n">
         <v>179</v>
       </c>
       <c r="D89" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E89" t="n">
         <v>179</v>
       </c>
       <c r="F89" t="n">
-        <v>1213.852</v>
+        <v>5628.0287</v>
       </c>
       <c r="G89" t="n">
-        <v>179.8</v>
+        <v>178.5166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C90" t="n">
         <v>179</v>
       </c>
       <c r="D90" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E90" t="n">
         <v>179</v>
       </c>
       <c r="F90" t="n">
-        <v>400</v>
+        <v>1213.852</v>
       </c>
       <c r="G90" t="n">
-        <v>179.6</v>
+        <v>178.5333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C91" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D91" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E91" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F91" t="n">
-        <v>6.6666</v>
+        <v>400</v>
       </c>
       <c r="G91" t="n">
-        <v>180</v>
+        <v>178.55</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C92" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D92" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E92" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F92" t="n">
-        <v>3216</v>
+        <v>6.6666</v>
       </c>
       <c r="G92" t="n">
-        <v>180</v>
+        <v>178.6333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3646,10 @@
         <v>180</v>
       </c>
       <c r="F93" t="n">
-        <v>2283.7361</v>
+        <v>3216</v>
       </c>
       <c r="G93" t="n">
-        <v>180.2</v>
+        <v>178.6666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3681,10 @@
         <v>180</v>
       </c>
       <c r="F94" t="n">
-        <v>400</v>
+        <v>2283.7361</v>
       </c>
       <c r="G94" t="n">
-        <v>180.4</v>
+        <v>178.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C95" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D95" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E95" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F95" t="n">
-        <v>2157.8211</v>
+        <v>400</v>
       </c>
       <c r="G95" t="n">
-        <v>181.4</v>
+        <v>178.7333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,7 +3739,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C96" t="n">
         <v>184</v>
@@ -3732,13 +3748,13 @@
         <v>184</v>
       </c>
       <c r="E96" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F96" t="n">
-        <v>1443.5702</v>
+        <v>2157.8211</v>
       </c>
       <c r="G96" t="n">
-        <v>181.6</v>
+        <v>178.85</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C97" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D97" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E97" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F97" t="n">
-        <v>1153.09</v>
+        <v>1443.5702</v>
       </c>
       <c r="G97" t="n">
-        <v>181.6</v>
+        <v>178.9666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C98" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D98" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E98" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F98" t="n">
-        <v>2100</v>
+        <v>1153.09</v>
       </c>
       <c r="G98" t="n">
-        <v>181.4</v>
+        <v>179</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C99" t="n">
         <v>179</v>
       </c>
       <c r="D99" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E99" t="n">
         <v>179</v>
       </c>
       <c r="F99" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="G99" t="n">
-        <v>181.2</v>
+        <v>179.0333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3882,19 @@
         <v>179</v>
       </c>
       <c r="C100" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D100" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E100" t="n">
         <v>179</v>
       </c>
       <c r="F100" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="G100" t="n">
-        <v>180.4</v>
+        <v>179.0666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C101" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D101" t="n">
         <v>180</v>
       </c>
       <c r="E101" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F101" t="n">
-        <v>10066.5305</v>
+        <v>2600</v>
       </c>
       <c r="G101" t="n">
-        <v>179.2</v>
+        <v>179.0666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C102" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D102" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E102" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F102" t="n">
-        <v>12664.3</v>
+        <v>10066.5305</v>
       </c>
       <c r="G102" t="n">
-        <v>178.6</v>
+        <v>179.0333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +3987,19 @@
         <v>178</v>
       </c>
       <c r="C103" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D103" t="n">
         <v>178</v>
       </c>
       <c r="E103" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F103" t="n">
-        <v>1809</v>
+        <v>12664.3</v>
       </c>
       <c r="G103" t="n">
-        <v>178.4</v>
+        <v>178.9833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4022,19 @@
         <v>178</v>
       </c>
       <c r="C104" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D104" t="n">
         <v>178</v>
       </c>
       <c r="E104" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F104" t="n">
-        <v>10296.7</v>
+        <v>1809</v>
       </c>
       <c r="G104" t="n">
-        <v>177.6</v>
+        <v>178.9833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C105" t="n">
         <v>175</v>
       </c>
       <c r="D105" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E105" t="n">
         <v>175</v>
       </c>
       <c r="F105" t="n">
-        <v>4521.3425</v>
+        <v>10296.7</v>
       </c>
       <c r="G105" t="n">
-        <v>176.6</v>
+        <v>178.9333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,10 +4089,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>176</v>
+      </c>
+      <c r="C106" t="n">
         <v>175</v>
-      </c>
-      <c r="C106" t="n">
-        <v>176</v>
       </c>
       <c r="D106" t="n">
         <v>176</v>
@@ -4085,10 +4101,10 @@
         <v>175</v>
       </c>
       <c r="F106" t="n">
-        <v>4514</v>
+        <v>4521.3425</v>
       </c>
       <c r="G106" t="n">
-        <v>176.2</v>
+        <v>178.8833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C107" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D107" t="n">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E107" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F107" t="n">
-        <v>20945.67010055248</v>
+        <v>4514</v>
       </c>
       <c r="G107" t="n">
-        <v>176.2</v>
+        <v>178.8666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C108" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D108" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E108" t="n">
         <v>176</v>
       </c>
       <c r="F108" t="n">
-        <v>2159.8326</v>
+        <v>20945.67010055248</v>
       </c>
       <c r="G108" t="n">
-        <v>175.8</v>
+        <v>178.8666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C109" t="n">
         <v>176</v>
       </c>
       <c r="D109" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E109" t="n">
         <v>176</v>
       </c>
       <c r="F109" t="n">
-        <v>6582.6487</v>
+        <v>2159.8326</v>
       </c>
       <c r="G109" t="n">
-        <v>176</v>
+        <v>178.8333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C110" t="n">
         <v>176</v>
       </c>
       <c r="D110" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E110" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F110" t="n">
-        <v>5707.8368</v>
+        <v>6582.6487</v>
       </c>
       <c r="G110" t="n">
-        <v>176.2</v>
+        <v>178.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4257,13 +4273,13 @@
         <v>176</v>
       </c>
       <c r="E111" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F111" t="n">
-        <v>5272.6345</v>
+        <v>5707.8368</v>
       </c>
       <c r="G111" t="n">
-        <v>176.2</v>
+        <v>178.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C112" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D112" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E112" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F112" t="n">
-        <v>28584.7</v>
+        <v>5272.6345</v>
       </c>
       <c r="G112" t="n">
-        <v>176.2</v>
+        <v>178.7833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C113" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D113" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E113" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F113" t="n">
-        <v>22511.9239</v>
+        <v>28584.7</v>
       </c>
       <c r="G113" t="n">
-        <v>175.8</v>
+        <v>178.7833333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C114" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D114" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E114" t="n">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>22511.9239</v>
       </c>
       <c r="G114" t="n">
-        <v>176.2</v>
+        <v>178.6833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C115" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D115" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E115" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F115" t="n">
-        <v>9992.700000000001</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>175.8</v>
+        <v>178.65</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4439,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C116" t="n">
         <v>174</v>
       </c>
       <c r="D116" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E116" t="n">
         <v>174</v>
       </c>
       <c r="F116" t="n">
-        <v>24479.8458</v>
+        <v>9992.700000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>175.4</v>
+        <v>178.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C117" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D117" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E117" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F117" t="n">
-        <v>550.8782</v>
+        <v>24479.8458</v>
       </c>
       <c r="G117" t="n">
-        <v>174.6</v>
+        <v>178.55</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4509,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C118" t="n">
         <v>173</v>
       </c>
       <c r="D118" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E118" t="n">
         <v>173</v>
       </c>
       <c r="F118" t="n">
-        <v>3902</v>
+        <v>550.8782</v>
       </c>
       <c r="G118" t="n">
-        <v>174.4</v>
+        <v>178.4333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C119" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D119" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E119" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F119" t="n">
-        <v>7661.6722</v>
+        <v>3902</v>
       </c>
       <c r="G119" t="n">
-        <v>173.2</v>
+        <v>178.3833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,10 +4579,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C120" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D120" t="n">
         <v>175</v>
@@ -4575,10 +4591,10 @@
         <v>172</v>
       </c>
       <c r="F120" t="n">
-        <v>6313.7828</v>
+        <v>7661.6722</v>
       </c>
       <c r="G120" t="n">
-        <v>173</v>
+        <v>178.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,35 +4614,31 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>173</v>
+      </c>
+      <c r="C121" t="n">
+        <v>173</v>
+      </c>
+      <c r="D121" t="n">
         <v>175</v>
       </c>
-      <c r="C121" t="n">
-        <v>177</v>
-      </c>
-      <c r="D121" t="n">
-        <v>177</v>
-      </c>
       <c r="E121" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F121" t="n">
-        <v>4891.9283</v>
+        <v>6313.7828</v>
       </c>
       <c r="G121" t="n">
-        <v>173.6</v>
+        <v>178.2333333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>173</v>
-      </c>
-      <c r="K121" t="n">
-        <v>173</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
@@ -4637,40 +4649,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>175</v>
+      </c>
+      <c r="C122" t="n">
+        <v>177</v>
+      </c>
+      <c r="D122" t="n">
+        <v>177</v>
+      </c>
+      <c r="E122" t="n">
         <v>174</v>
       </c>
-      <c r="C122" t="n">
-        <v>172</v>
-      </c>
-      <c r="D122" t="n">
-        <v>174</v>
-      </c>
-      <c r="E122" t="n">
-        <v>172</v>
-      </c>
       <c r="F122" t="n">
-        <v>954.4799</v>
+        <v>4891.9283</v>
       </c>
       <c r="G122" t="n">
-        <v>173.4</v>
+        <v>178.25</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>177</v>
-      </c>
-      <c r="K122" t="n">
-        <v>173</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4680,22 +4684,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>174</v>
+      </c>
+      <c r="C123" t="n">
         <v>172</v>
       </c>
-      <c r="C123" t="n">
-        <v>171</v>
-      </c>
       <c r="D123" t="n">
+        <v>174</v>
+      </c>
+      <c r="E123" t="n">
         <v>172</v>
       </c>
-      <c r="E123" t="n">
-        <v>171</v>
-      </c>
       <c r="F123" t="n">
-        <v>19574.9783</v>
+        <v>954.4799</v>
       </c>
       <c r="G123" t="n">
-        <v>173</v>
+        <v>178.1833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4704,14 +4708,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>173</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4721,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C124" t="n">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D124" t="n">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E124" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F124" t="n">
-        <v>836.0422</v>
+        <v>19574.9783</v>
       </c>
       <c r="G124" t="n">
-        <v>173.8</v>
+        <v>178.0666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4745,14 +4743,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>173</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4762,22 +4754,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C125" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D125" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E125" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F125" t="n">
-        <v>1952.5197</v>
+        <v>836.0422</v>
       </c>
       <c r="G125" t="n">
-        <v>174.6</v>
+        <v>178.0666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4786,14 +4778,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>173</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4803,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C126" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D126" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E126" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F126" t="n">
-        <v>895</v>
+        <v>1952.5197</v>
       </c>
       <c r="G126" t="n">
-        <v>173.8</v>
+        <v>178.0166666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4827,14 +4813,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>173</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4844,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C127" t="n">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D127" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E127" t="n">
         <v>173</v>
       </c>
       <c r="F127" t="n">
-        <v>6666.8274</v>
+        <v>895</v>
       </c>
       <c r="G127" t="n">
-        <v>174.8</v>
+        <v>177.9333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4868,14 +4848,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>173</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4888,19 +4862,19 @@
         <v>175</v>
       </c>
       <c r="C128" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D128" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E128" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F128" t="n">
-        <v>1061.3237</v>
+        <v>6666.8274</v>
       </c>
       <c r="G128" t="n">
-        <v>175.4</v>
+        <v>177.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4909,14 +4883,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>173</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4929,19 +4897,19 @@
         <v>175</v>
       </c>
       <c r="C129" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D129" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E129" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F129" t="n">
-        <v>10584.7397</v>
+        <v>1061.3237</v>
       </c>
       <c r="G129" t="n">
-        <v>175.4</v>
+        <v>177.8166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4950,14 +4918,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>173</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4973,16 +4935,16 @@
         <v>176</v>
       </c>
       <c r="D130" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E130" t="n">
         <v>175</v>
       </c>
       <c r="F130" t="n">
-        <v>1052</v>
+        <v>10584.7397</v>
       </c>
       <c r="G130" t="n">
-        <v>175.2</v>
+        <v>177.7666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4991,14 +4953,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>173</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5008,10 +4964,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C131" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D131" t="n">
         <v>176</v>
@@ -5020,10 +4976,10 @@
         <v>175</v>
       </c>
       <c r="F131" t="n">
-        <v>425</v>
+        <v>1052</v>
       </c>
       <c r="G131" t="n">
-        <v>175.6</v>
+        <v>177.7166666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5032,14 +4988,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>173</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5049,10 +4999,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>176</v>
+      </c>
+      <c r="C132" t="n">
         <v>175</v>
-      </c>
-      <c r="C132" t="n">
-        <v>176</v>
       </c>
       <c r="D132" t="n">
         <v>176</v>
@@ -5061,10 +5011,10 @@
         <v>175</v>
       </c>
       <c r="F132" t="n">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="G132" t="n">
-        <v>175.4</v>
+        <v>177.6666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5073,14 +5023,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>173</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5090,7 +5034,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C133" t="n">
         <v>176</v>
@@ -5099,13 +5043,13 @@
         <v>176</v>
       </c>
       <c r="E133" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F133" t="n">
-        <v>1839</v>
+        <v>343</v>
       </c>
       <c r="G133" t="n">
-        <v>175.8</v>
+        <v>177.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5114,14 +5058,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>173</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5134,19 +5072,19 @@
         <v>176</v>
       </c>
       <c r="C134" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D134" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E134" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F134" t="n">
-        <v>6285.231755367232</v>
+        <v>1839</v>
       </c>
       <c r="G134" t="n">
-        <v>175.6</v>
+        <v>177.5333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5155,14 +5093,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>173</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5172,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C135" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D135" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E135" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F135" t="n">
-        <v>664.7534120484987</v>
+        <v>6285.231755367232</v>
       </c>
       <c r="G135" t="n">
-        <v>176</v>
+        <v>177.4666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5196,14 +5128,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>173</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5216,19 +5142,19 @@
         <v>177</v>
       </c>
       <c r="C136" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D136" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E136" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F136" t="n">
-        <v>12650.1221</v>
+        <v>664.7534120484987</v>
       </c>
       <c r="G136" t="n">
-        <v>176.2</v>
+        <v>177.4666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5237,14 +5163,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>173</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5254,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C137" t="n">
         <v>176</v>
       </c>
       <c r="D137" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E137" t="n">
         <v>176</v>
       </c>
       <c r="F137" t="n">
-        <v>305.3738</v>
+        <v>12650.1221</v>
       </c>
       <c r="G137" t="n">
-        <v>176.2</v>
+        <v>177.4333333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5278,14 +5198,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>173</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5295,22 +5209,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C138" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D138" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E138" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F138" t="n">
-        <v>450</v>
+        <v>305.3738</v>
       </c>
       <c r="G138" t="n">
-        <v>176</v>
+        <v>177.3666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5319,14 +5233,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>173</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5336,22 +5244,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C139" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D139" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E139" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F139" t="n">
-        <v>96.96629213483146</v>
+        <v>450</v>
       </c>
       <c r="G139" t="n">
-        <v>176.6</v>
+        <v>177.2666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5360,14 +5268,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>173</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5377,22 +5279,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C140" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D140" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E140" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F140" t="n">
-        <v>763</v>
+        <v>96.96629213483146</v>
       </c>
       <c r="G140" t="n">
-        <v>176</v>
+        <v>177.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5401,14 +5303,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>173</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5418,22 +5314,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C141" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D141" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E141" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F141" t="n">
-        <v>4500.0001</v>
+        <v>763</v>
       </c>
       <c r="G141" t="n">
-        <v>176</v>
+        <v>177.1333333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5442,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>173</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5471,10 +5361,10 @@
         <v>176</v>
       </c>
       <c r="F142" t="n">
-        <v>5118.5198</v>
+        <v>4500.0001</v>
       </c>
       <c r="G142" t="n">
-        <v>176</v>
+        <v>177.0666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5483,14 +5373,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>173</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5500,7 +5384,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C143" t="n">
         <v>176</v>
@@ -5509,13 +5393,13 @@
         <v>176</v>
       </c>
       <c r="E143" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F143" t="n">
-        <v>6498</v>
+        <v>5118.5198</v>
       </c>
       <c r="G143" t="n">
-        <v>176.2</v>
+        <v>176.95</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5524,14 +5408,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>173</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5541,7 +5419,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C144" t="n">
         <v>176</v>
@@ -5550,13 +5428,13 @@
         <v>176</v>
       </c>
       <c r="E144" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F144" t="n">
-        <v>1259.9999</v>
+        <v>6498</v>
       </c>
       <c r="G144" t="n">
-        <v>175.8</v>
+        <v>176.9166666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5565,14 +5443,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>173</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5594,10 +5466,10 @@
         <v>176</v>
       </c>
       <c r="F145" t="n">
-        <v>100</v>
+        <v>1259.9999</v>
       </c>
       <c r="G145" t="n">
-        <v>176</v>
+        <v>176.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5606,14 +5478,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>173</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5626,19 +5492,19 @@
         <v>176</v>
       </c>
       <c r="C146" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D146" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E146" t="n">
         <v>176</v>
       </c>
       <c r="F146" t="n">
-        <v>1178.2382</v>
+        <v>100</v>
       </c>
       <c r="G146" t="n">
-        <v>176.2</v>
+        <v>176.7333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5647,14 +5513,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>173</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5664,7 +5524,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C147" t="n">
         <v>177</v>
@@ -5673,13 +5533,13 @@
         <v>177</v>
       </c>
       <c r="E147" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F147" t="n">
-        <v>1854</v>
+        <v>1178.2382</v>
       </c>
       <c r="G147" t="n">
-        <v>176.4</v>
+        <v>176.6666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5688,14 +5548,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>173</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5705,22 +5559,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C148" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D148" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E148" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F148" t="n">
-        <v>16891.1924</v>
+        <v>1854</v>
       </c>
       <c r="G148" t="n">
-        <v>176.8</v>
+        <v>176.6166666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5729,14 +5583,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>173</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5746,22 +5594,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C149" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D149" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E149" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F149" t="n">
-        <v>1261.1126</v>
+        <v>16891.1924</v>
       </c>
       <c r="G149" t="n">
-        <v>177</v>
+        <v>176.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5770,14 +5618,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>173</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5787,22 +5629,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C150" t="n">
         <v>177</v>
       </c>
       <c r="D150" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E150" t="n">
         <v>177</v>
       </c>
       <c r="F150" t="n">
-        <v>2212.8775</v>
+        <v>1261.1126</v>
       </c>
       <c r="G150" t="n">
-        <v>177.2</v>
+        <v>176.5666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5811,14 +5653,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>173</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5828,22 +5664,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C151" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D151" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E151" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F151" t="n">
-        <v>12399</v>
+        <v>2212.8775</v>
       </c>
       <c r="G151" t="n">
-        <v>177</v>
+        <v>176.5333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5852,14 +5688,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>173</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5869,7 +5699,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C152" t="n">
         <v>176</v>
@@ -5881,10 +5711,10 @@
         <v>176</v>
       </c>
       <c r="F152" t="n">
-        <v>200</v>
+        <v>12399</v>
       </c>
       <c r="G152" t="n">
-        <v>176.8</v>
+        <v>176.4166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5893,14 +5723,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>173</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5910,7 +5734,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C153" t="n">
         <v>176</v>
@@ -5922,10 +5746,10 @@
         <v>176</v>
       </c>
       <c r="F153" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G153" t="n">
-        <v>176.4</v>
+        <v>176.35</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5934,14 +5758,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>173</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5951,22 +5769,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C154" t="n">
         <v>176</v>
       </c>
       <c r="D154" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E154" t="n">
         <v>176</v>
       </c>
       <c r="F154" t="n">
-        <v>298.9999</v>
+        <v>100</v>
       </c>
       <c r="G154" t="n">
-        <v>176.2</v>
+        <v>176.2833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5975,14 +5793,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>173</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6004,10 +5816,10 @@
         <v>176</v>
       </c>
       <c r="F155" t="n">
-        <v>1931.9999</v>
+        <v>298.9999</v>
       </c>
       <c r="G155" t="n">
-        <v>176</v>
+        <v>176.2166666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6016,14 +5828,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>173</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6045,10 +5851,10 @@
         <v>176</v>
       </c>
       <c r="F156" t="n">
-        <v>1379</v>
+        <v>1931.9999</v>
       </c>
       <c r="G156" t="n">
-        <v>176</v>
+        <v>176.0833333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6057,14 +5863,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>173</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6086,10 +5886,10 @@
         <v>176</v>
       </c>
       <c r="F157" t="n">
-        <v>1007.5065</v>
+        <v>1379</v>
       </c>
       <c r="G157" t="n">
-        <v>176</v>
+        <v>175.95</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6098,14 +5898,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>173</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6121,16 +5915,16 @@
         <v>176</v>
       </c>
       <c r="D158" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E158" t="n">
         <v>176</v>
       </c>
       <c r="F158" t="n">
-        <v>3725</v>
+        <v>1007.5065</v>
       </c>
       <c r="G158" t="n">
-        <v>176</v>
+        <v>175.8833333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6139,14 +5933,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>173</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6156,22 +5944,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C159" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D159" t="n">
         <v>177</v>
       </c>
       <c r="E159" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F159" t="n">
-        <v>503</v>
+        <v>3725</v>
       </c>
       <c r="G159" t="n">
-        <v>176.2</v>
+        <v>175.8333333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6180,14 +5968,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>173</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6200,19 +5982,19 @@
         <v>177</v>
       </c>
       <c r="C160" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D160" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E160" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F160" t="n">
-        <v>2234.505</v>
+        <v>503</v>
       </c>
       <c r="G160" t="n">
-        <v>176.2</v>
+        <v>175.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6221,14 +6003,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>173</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6241,19 +6017,19 @@
         <v>177</v>
       </c>
       <c r="C161" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D161" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E161" t="n">
         <v>176</v>
       </c>
       <c r="F161" t="n">
-        <v>800</v>
+        <v>2234.505</v>
       </c>
       <c r="G161" t="n">
-        <v>176.4</v>
+        <v>175.7333333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6262,14 +6038,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>173</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6288,13 +6058,13 @@
         <v>177</v>
       </c>
       <c r="E162" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F162" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G162" t="n">
-        <v>176.6</v>
+        <v>175.7166666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6303,14 +6073,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>173</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6326,16 +6090,16 @@
         <v>177</v>
       </c>
       <c r="D163" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E163" t="n">
         <v>177</v>
       </c>
       <c r="F163" t="n">
-        <v>1351.4238</v>
+        <v>900</v>
       </c>
       <c r="G163" t="n">
-        <v>176.8</v>
+        <v>175.7166666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6344,14 +6108,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>173</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6361,22 +6119,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C164" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D164" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E164" t="n">
         <v>177</v>
       </c>
       <c r="F164" t="n">
-        <v>29193.3767</v>
+        <v>1351.4238</v>
       </c>
       <c r="G164" t="n">
-        <v>177.4</v>
+        <v>175.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6385,14 +6143,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>173</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6402,22 +6154,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C165" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D165" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E165" t="n">
         <v>177</v>
       </c>
       <c r="F165" t="n">
-        <v>4112.2921</v>
+        <v>29193.3767</v>
       </c>
       <c r="G165" t="n">
-        <v>177.6</v>
+        <v>175.7833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6426,14 +6178,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>173</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6443,22 +6189,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C166" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D166" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E166" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F166" t="n">
-        <v>4538.0154</v>
+        <v>4112.2921</v>
       </c>
       <c r="G166" t="n">
-        <v>177.8</v>
+        <v>175.8166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6467,14 +6213,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>173</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6487,19 +6227,19 @@
         <v>178</v>
       </c>
       <c r="C167" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D167" t="n">
         <v>178</v>
       </c>
       <c r="E167" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F167" t="n">
-        <v>15960.518</v>
+        <v>4538.0154</v>
       </c>
       <c r="G167" t="n">
-        <v>177.8</v>
+        <v>175.85</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6508,14 +6248,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>173</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6525,22 +6259,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C168" t="n">
         <v>177</v>
       </c>
       <c r="D168" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E168" t="n">
         <v>177</v>
       </c>
       <c r="F168" t="n">
-        <v>3272.8105</v>
+        <v>15960.518</v>
       </c>
       <c r="G168" t="n">
-        <v>177.8</v>
+        <v>175.85</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6549,14 +6283,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>173</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6566,22 +6294,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C169" t="n">
         <v>177</v>
       </c>
       <c r="D169" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E169" t="n">
         <v>177</v>
       </c>
       <c r="F169" t="n">
-        <v>1.12</v>
+        <v>3272.8105</v>
       </c>
       <c r="G169" t="n">
-        <v>177.2</v>
+        <v>175.8666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6590,14 +6318,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>173</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6607,22 +6329,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C170" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D170" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E170" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F170" t="n">
-        <v>1.0939</v>
+        <v>1.12</v>
       </c>
       <c r="G170" t="n">
-        <v>178</v>
+        <v>175.8833333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6631,14 +6353,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>173</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6648,22 +6364,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C171" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D171" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E171" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F171" t="n">
-        <v>3308.9583</v>
+        <v>1.0939</v>
       </c>
       <c r="G171" t="n">
-        <v>177.8</v>
+        <v>175.9666666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6672,14 +6388,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>173</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6692,19 +6402,19 @@
         <v>178</v>
       </c>
       <c r="C172" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D172" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E172" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F172" t="n">
-        <v>6596.4784</v>
+        <v>3308.9583</v>
       </c>
       <c r="G172" t="n">
-        <v>178</v>
+        <v>175.9833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6713,14 +6423,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>173</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6736,16 +6440,16 @@
         <v>178</v>
       </c>
       <c r="D173" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E173" t="n">
         <v>178</v>
       </c>
       <c r="F173" t="n">
-        <v>316</v>
+        <v>6596.4784</v>
       </c>
       <c r="G173" t="n">
-        <v>178.2</v>
+        <v>176</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6754,14 +6458,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>173</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6783,10 +6481,10 @@
         <v>178</v>
       </c>
       <c r="F174" t="n">
-        <v>1683</v>
+        <v>316</v>
       </c>
       <c r="G174" t="n">
-        <v>178.4</v>
+        <v>176.0666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6795,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>173</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6824,10 +6516,10 @@
         <v>178</v>
       </c>
       <c r="F175" t="n">
-        <v>564</v>
+        <v>1683</v>
       </c>
       <c r="G175" t="n">
-        <v>177.8</v>
+        <v>176.0666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6836,14 +6528,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>173</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6865,10 +6551,10 @@
         <v>178</v>
       </c>
       <c r="F176" t="n">
-        <v>2502</v>
+        <v>564</v>
       </c>
       <c r="G176" t="n">
-        <v>178</v>
+        <v>176.1333333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6877,14 +6563,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>173</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6897,19 +6577,19 @@
         <v>178</v>
       </c>
       <c r="C177" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D177" t="n">
         <v>178</v>
       </c>
       <c r="E177" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F177" t="n">
-        <v>15776.4167</v>
+        <v>2502</v>
       </c>
       <c r="G177" t="n">
-        <v>177.8</v>
+        <v>176.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6918,14 +6598,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>173</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6938,19 +6612,19 @@
         <v>178</v>
       </c>
       <c r="C178" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D178" t="n">
         <v>178</v>
       </c>
       <c r="E178" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F178" t="n">
-        <v>8935.555399999999</v>
+        <v>15776.4167</v>
       </c>
       <c r="G178" t="n">
-        <v>177.8</v>
+        <v>176.2666666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6959,14 +6633,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>173</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6976,22 +6644,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C179" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D179" t="n">
         <v>178</v>
       </c>
       <c r="E179" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F179" t="n">
-        <v>23894.4673</v>
+        <v>8935.555399999999</v>
       </c>
       <c r="G179" t="n">
-        <v>177.6</v>
+        <v>176.35</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7000,14 +6668,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>173</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7017,22 +6679,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C180" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D180" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E180" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F180" t="n">
-        <v>10</v>
+        <v>23894.4673</v>
       </c>
       <c r="G180" t="n">
-        <v>178</v>
+        <v>176.4333333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7041,14 +6703,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>173</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7058,22 +6714,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C181" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D181" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E181" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F181" t="n">
-        <v>3738.5296</v>
+        <v>10</v>
       </c>
       <c r="G181" t="n">
-        <v>178.2</v>
+        <v>176.55</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7082,14 +6738,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>173</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7099,22 +6749,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C182" t="n">
         <v>179</v>
       </c>
       <c r="D182" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E182" t="n">
         <v>179</v>
       </c>
       <c r="F182" t="n">
-        <v>535.7875</v>
+        <v>3738.5296</v>
       </c>
       <c r="G182" t="n">
-        <v>178.6</v>
+        <v>176.5833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7123,14 +6773,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>173</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7143,19 +6787,19 @@
         <v>180</v>
       </c>
       <c r="C183" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D183" t="n">
         <v>180</v>
       </c>
       <c r="E183" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F183" t="n">
-        <v>987.9999</v>
+        <v>535.7875</v>
       </c>
       <c r="G183" t="n">
-        <v>178.4</v>
+        <v>176.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7164,14 +6808,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>173</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7181,22 +6819,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C184" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D184" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E184" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F184" t="n">
-        <v>8494.696400000001</v>
+        <v>987.9999</v>
       </c>
       <c r="G184" t="n">
-        <v>179.2</v>
+        <v>176.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7205,14 +6843,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>173</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7225,19 +6857,19 @@
         <v>181</v>
       </c>
       <c r="C185" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D185" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E185" t="n">
         <v>181</v>
       </c>
       <c r="F185" t="n">
-        <v>26965.1181</v>
+        <v>8494.696400000001</v>
       </c>
       <c r="G185" t="n">
-        <v>179.6</v>
+        <v>176.8833333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7246,14 +6878,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>173</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7263,22 +6889,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C186" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D186" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E186" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F186" t="n">
-        <v>232</v>
+        <v>26965.1181</v>
       </c>
       <c r="G186" t="n">
-        <v>179.6</v>
+        <v>176.9666666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7287,14 +6913,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>173</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7316,10 +6936,10 @@
         <v>179</v>
       </c>
       <c r="F187" t="n">
-        <v>611.2306</v>
+        <v>232</v>
       </c>
       <c r="G187" t="n">
-        <v>179.6</v>
+        <v>177.0666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7328,14 +6948,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>173</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7345,22 +6959,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C188" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D188" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E188" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F188" t="n">
-        <v>96.7238</v>
+        <v>611.2306</v>
       </c>
       <c r="G188" t="n">
-        <v>179.8</v>
+        <v>177.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7369,14 +6983,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>173</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7386,22 +6994,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C189" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D189" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E189" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>96.7238</v>
       </c>
       <c r="G189" t="n">
-        <v>179.6</v>
+        <v>177.1666666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7410,14 +7018,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>173</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7439,10 +7041,10 @@
         <v>180</v>
       </c>
       <c r="F190" t="n">
-        <v>6265.4118</v>
+        <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>179.2</v>
+        <v>177.2333333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7451,14 +7053,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>173</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7480,10 +7076,10 @@
         <v>180</v>
       </c>
       <c r="F191" t="n">
-        <v>452.2659</v>
+        <v>6265.4118</v>
       </c>
       <c r="G191" t="n">
-        <v>179.4</v>
+        <v>177.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7492,14 +7088,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>173</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7521,10 +7111,10 @@
         <v>180</v>
       </c>
       <c r="F192" t="n">
-        <v>908.5101</v>
+        <v>452.2659</v>
       </c>
       <c r="G192" t="n">
-        <v>179.6</v>
+        <v>177.3833333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7533,14 +7123,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>173</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7562,10 +7146,10 @@
         <v>180</v>
       </c>
       <c r="F193" t="n">
-        <v>130</v>
+        <v>908.5101</v>
       </c>
       <c r="G193" t="n">
-        <v>180</v>
+        <v>177.45</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7574,14 +7158,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>173</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7591,22 +7169,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C194" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D194" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E194" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F194" t="n">
-        <v>3579.7348</v>
+        <v>130</v>
       </c>
       <c r="G194" t="n">
-        <v>180.2</v>
+        <v>177.5166666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7615,14 +7193,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>173</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7632,22 +7204,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C195" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D195" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E195" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F195" t="n">
-        <v>2769.8742</v>
+        <v>3579.7348</v>
       </c>
       <c r="G195" t="n">
-        <v>180.2</v>
+        <v>177.6166666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7656,14 +7228,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>173</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7685,10 +7251,10 @@
         <v>180</v>
       </c>
       <c r="F196" t="n">
-        <v>256</v>
+        <v>2769.8742</v>
       </c>
       <c r="G196" t="n">
-        <v>180.2</v>
+        <v>177.65</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7697,14 +7263,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>173</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7714,22 +7274,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C197" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D197" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E197" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F197" t="n">
-        <v>6819.011</v>
+        <v>256</v>
       </c>
       <c r="G197" t="n">
-        <v>180.4</v>
+        <v>177.7166666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7738,14 +7298,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>173</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7758,19 +7312,19 @@
         <v>181</v>
       </c>
       <c r="C198" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D198" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E198" t="n">
         <v>181</v>
       </c>
       <c r="F198" t="n">
-        <v>17210.0015</v>
+        <v>6819.011</v>
       </c>
       <c r="G198" t="n">
-        <v>180.8</v>
+        <v>177.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7779,14 +7333,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>173</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7796,22 +7344,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>181</v>
+      </c>
+      <c r="C199" t="n">
         <v>182</v>
       </c>
-      <c r="C199" t="n">
-        <v>181</v>
-      </c>
       <c r="D199" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E199" t="n">
         <v>181</v>
       </c>
       <c r="F199" t="n">
-        <v>10936</v>
+        <v>17210.0015</v>
       </c>
       <c r="G199" t="n">
-        <v>180.8</v>
+        <v>177.9166666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7820,14 +7368,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>173</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7837,22 +7379,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C200" t="n">
         <v>181</v>
       </c>
       <c r="D200" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E200" t="n">
         <v>181</v>
       </c>
       <c r="F200" t="n">
-        <v>4722.0618</v>
+        <v>10936</v>
       </c>
       <c r="G200" t="n">
-        <v>181</v>
+        <v>177.9666666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7861,14 +7403,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>173</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7878,22 +7414,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C201" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D201" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E201" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F201" t="n">
-        <v>9293.182500000001</v>
+        <v>4722.0618</v>
       </c>
       <c r="G201" t="n">
-        <v>181.6</v>
+        <v>178.0666666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7902,14 +7438,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>173</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7922,19 +7452,19 @@
         <v>183</v>
       </c>
       <c r="C202" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D202" t="n">
         <v>183</v>
       </c>
       <c r="E202" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F202" t="n">
-        <v>600</v>
+        <v>9293.182500000001</v>
       </c>
       <c r="G202" t="n">
-        <v>181.6</v>
+        <v>178.1833333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7943,14 +7473,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>173</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7960,22 +7484,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C203" t="n">
         <v>181</v>
       </c>
       <c r="D203" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E203" t="n">
         <v>181</v>
       </c>
       <c r="F203" t="n">
-        <v>2611.6092</v>
+        <v>600</v>
       </c>
       <c r="G203" t="n">
-        <v>181.4</v>
+        <v>178.2666666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7984,14 +7508,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>173</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8001,22 +7519,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C204" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D204" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E204" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F204" t="n">
-        <v>1000</v>
+        <v>2611.6092</v>
       </c>
       <c r="G204" t="n">
-        <v>181.6</v>
+        <v>178.35</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8025,14 +7543,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>173</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8054,10 +7566,10 @@
         <v>182</v>
       </c>
       <c r="F205" t="n">
-        <v>523.7987000000001</v>
+        <v>1000</v>
       </c>
       <c r="G205" t="n">
-        <v>181.8</v>
+        <v>178.45</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8066,14 +7578,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>173</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8095,10 +7601,10 @@
         <v>182</v>
       </c>
       <c r="F206" t="n">
-        <v>958.4234</v>
+        <v>523.7987000000001</v>
       </c>
       <c r="G206" t="n">
-        <v>181.6</v>
+        <v>178.55</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8107,14 +7613,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>173</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8127,19 +7627,19 @@
         <v>182</v>
       </c>
       <c r="C207" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D207" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E207" t="n">
         <v>182</v>
       </c>
       <c r="F207" t="n">
-        <v>12.70108695652174</v>
+        <v>958.4234</v>
       </c>
       <c r="G207" t="n">
-        <v>182.2</v>
+        <v>178.6333333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8148,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>173</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8168,19 +7662,19 @@
         <v>182</v>
       </c>
       <c r="C208" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D208" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E208" t="n">
         <v>182</v>
       </c>
       <c r="F208" t="n">
-        <v>722.9999</v>
+        <v>12.70108695652174</v>
       </c>
       <c r="G208" t="n">
-        <v>182.4</v>
+        <v>178.75</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8189,14 +7683,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>173</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8206,22 +7694,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C209" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D209" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E209" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F209" t="n">
-        <v>5206.899813043478</v>
+        <v>722.9999</v>
       </c>
       <c r="G209" t="n">
-        <v>183</v>
+        <v>178.8166666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8230,14 +7718,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>173</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8250,19 +7732,19 @@
         <v>184</v>
       </c>
       <c r="C210" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D210" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E210" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F210" t="n">
-        <v>18211.5429</v>
+        <v>5206.899813043478</v>
       </c>
       <c r="G210" t="n">
-        <v>183.2</v>
+        <v>178.95</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8271,14 +7753,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>173</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8294,16 +7770,16 @@
         <v>183</v>
       </c>
       <c r="D211" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E211" t="n">
         <v>183</v>
       </c>
       <c r="F211" t="n">
-        <v>272</v>
+        <v>18211.5429</v>
       </c>
       <c r="G211" t="n">
-        <v>183.4</v>
+        <v>179.05</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8312,14 +7788,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>173</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8329,40 +7799,34 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C212" t="n">
         <v>183</v>
       </c>
       <c r="D212" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E212" t="n">
         <v>183</v>
       </c>
       <c r="F212" t="n">
-        <v>792.9028</v>
+        <v>272</v>
       </c>
       <c r="G212" t="n">
-        <v>183.2</v>
+        <v>179.1666666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>173</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
-        <v>1.052803468208093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -8379,13 +7843,13 @@
         <v>183</v>
       </c>
       <c r="E213" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F213" t="n">
-        <v>5761.9019</v>
+        <v>792.9028</v>
       </c>
       <c r="G213" t="n">
-        <v>183.4</v>
+        <v>179.2833333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8414,13 +7878,13 @@
         <v>183</v>
       </c>
       <c r="E214" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F214" t="n">
-        <v>442.8589</v>
+        <v>5761.9019</v>
       </c>
       <c r="G214" t="n">
-        <v>183</v>
+        <v>179.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8452,10 +7916,10 @@
         <v>183</v>
       </c>
       <c r="F215" t="n">
-        <v>30.5027</v>
+        <v>442.8589</v>
       </c>
       <c r="G215" t="n">
-        <v>183</v>
+        <v>179.5166666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8487,10 +7951,10 @@
         <v>183</v>
       </c>
       <c r="F216" t="n">
-        <v>470.3152</v>
+        <v>30.5027</v>
       </c>
       <c r="G216" t="n">
-        <v>183</v>
+        <v>179.6333333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8513,19 +7977,19 @@
         <v>183</v>
       </c>
       <c r="C217" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D217" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E217" t="n">
         <v>183</v>
       </c>
       <c r="F217" t="n">
-        <v>342.0971</v>
+        <v>470.3152</v>
       </c>
       <c r="G217" t="n">
-        <v>183.2</v>
+        <v>179.75</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8545,7 +8009,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C218" t="n">
         <v>184</v>
@@ -8554,13 +8018,13 @@
         <v>184</v>
       </c>
       <c r="E218" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F218" t="n">
-        <v>29.7554</v>
+        <v>342.0971</v>
       </c>
       <c r="G218" t="n">
-        <v>183.4</v>
+        <v>179.8833333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8583,19 +8047,19 @@
         <v>184</v>
       </c>
       <c r="C219" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D219" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E219" t="n">
         <v>184</v>
       </c>
       <c r="F219" t="n">
-        <v>525.3461</v>
+        <v>29.7554</v>
       </c>
       <c r="G219" t="n">
-        <v>183.8</v>
+        <v>180.0166666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8615,22 +8079,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C220" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D220" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E220" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F220" t="n">
-        <v>1804.7497</v>
+        <v>525.3461</v>
       </c>
       <c r="G220" t="n">
-        <v>183.8</v>
+        <v>180.15</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8653,19 +8117,19 @@
         <v>183</v>
       </c>
       <c r="C221" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D221" t="n">
         <v>183</v>
       </c>
       <c r="E221" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F221" t="n">
-        <v>8685</v>
+        <v>1804.7497</v>
       </c>
       <c r="G221" t="n">
-        <v>183.6</v>
+        <v>180.2666666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8685,22 +8149,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C222" t="n">
         <v>182</v>
       </c>
       <c r="D222" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E222" t="n">
         <v>182</v>
       </c>
       <c r="F222" t="n">
-        <v>4310.3852</v>
+        <v>8685</v>
       </c>
       <c r="G222" t="n">
-        <v>183.2</v>
+        <v>180.35</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8732,10 +8196,10 @@
         <v>182</v>
       </c>
       <c r="F223" t="n">
-        <v>3285.166</v>
+        <v>4310.3852</v>
       </c>
       <c r="G223" t="n">
-        <v>182.8</v>
+        <v>180.4333333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8758,19 +8222,19 @@
         <v>182</v>
       </c>
       <c r="C224" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D224" t="n">
         <v>182</v>
       </c>
       <c r="E224" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F224" t="n">
-        <v>31369.5729</v>
+        <v>3285.166</v>
       </c>
       <c r="G224" t="n">
-        <v>182</v>
+        <v>180.5166666666667</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8790,22 +8254,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C225" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D225" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E225" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F225" t="n">
-        <v>1283.4392</v>
+        <v>31369.5729</v>
       </c>
       <c r="G225" t="n">
-        <v>181.4</v>
+        <v>180.5333333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8825,22 +8289,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C226" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D226" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E226" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F226" t="n">
-        <v>1</v>
+        <v>1283.4392</v>
       </c>
       <c r="G226" t="n">
-        <v>181.4</v>
+        <v>180.5833333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8860,22 +8324,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C227" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D227" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E227" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F227" t="n">
         <v>1</v>
       </c>
       <c r="G227" t="n">
-        <v>181.6</v>
+        <v>180.65</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8895,22 +8359,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C228" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D228" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E228" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F228" t="n">
-        <v>1201.8977</v>
+        <v>1</v>
       </c>
       <c r="G228" t="n">
-        <v>181.4</v>
+        <v>180.75</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8930,22 +8394,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C229" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D229" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E229" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>1201.8977</v>
       </c>
       <c r="G229" t="n">
-        <v>181.2</v>
+        <v>180.8166666666667</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8968,19 +8432,19 @@
         <v>180</v>
       </c>
       <c r="C230" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D230" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E230" t="n">
         <v>180</v>
       </c>
       <c r="F230" t="n">
-        <v>1514.2273</v>
+        <v>200</v>
       </c>
       <c r="G230" t="n">
-        <v>181.4</v>
+        <v>180.8666666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9000,7 +8464,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C231" t="n">
         <v>181</v>
@@ -9009,13 +8473,13 @@
         <v>181</v>
       </c>
       <c r="E231" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F231" t="n">
-        <v>57.4622</v>
+        <v>1514.2273</v>
       </c>
       <c r="G231" t="n">
-        <v>181.2</v>
+        <v>180.8666666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9047,10 +8511,10 @@
         <v>181</v>
       </c>
       <c r="F232" t="n">
-        <v>282.9816</v>
+        <v>57.4622</v>
       </c>
       <c r="G232" t="n">
-        <v>180.8</v>
+        <v>180.9333333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9070,22 +8534,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C233" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D233" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E233" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F233" t="n">
-        <v>18</v>
+        <v>282.9816</v>
       </c>
       <c r="G233" t="n">
-        <v>180.6</v>
+        <v>180.9833333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9105,22 +8569,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C234" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D234" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E234" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F234" t="n">
-        <v>543.4782608695652</v>
+        <v>18</v>
       </c>
       <c r="G234" t="n">
-        <v>181.4</v>
+        <v>181.0166666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9152,10 +8616,10 @@
         <v>184</v>
       </c>
       <c r="F235" t="n">
-        <v>1358.695652173913</v>
+        <v>543.4782608695652</v>
       </c>
       <c r="G235" t="n">
-        <v>182</v>
+        <v>181.1166666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9178,19 +8642,19 @@
         <v>184</v>
       </c>
       <c r="C236" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D236" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E236" t="n">
         <v>184</v>
       </c>
       <c r="F236" t="n">
-        <v>921.9287896592244</v>
+        <v>1358.695652173913</v>
       </c>
       <c r="G236" t="n">
-        <v>182.8</v>
+        <v>181.2166666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9210,7 +8674,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C237" t="n">
         <v>185</v>
@@ -9219,13 +8683,13 @@
         <v>185</v>
       </c>
       <c r="E237" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F237" t="n">
-        <v>540.5405405405405</v>
+        <v>921.9287896592244</v>
       </c>
       <c r="G237" t="n">
-        <v>183.6</v>
+        <v>181.3333333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9245,7 +8709,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C238" t="n">
         <v>185</v>
@@ -9254,13 +8718,13 @@
         <v>185</v>
       </c>
       <c r="E238" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F238" t="n">
-        <v>2164.00593027027</v>
+        <v>540.5405405405405</v>
       </c>
       <c r="G238" t="n">
-        <v>184.6</v>
+        <v>181.4666666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9283,19 +8747,19 @@
         <v>184</v>
       </c>
       <c r="C239" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D239" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E239" t="n">
         <v>184</v>
       </c>
       <c r="F239" t="n">
-        <v>683.9347</v>
+        <v>2164.00593027027</v>
       </c>
       <c r="G239" t="n">
-        <v>184.6</v>
+        <v>181.5833333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9315,22 +8779,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C240" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D240" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E240" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F240" t="n">
-        <v>2567.5191</v>
+        <v>683.9347</v>
       </c>
       <c r="G240" t="n">
-        <v>184.2</v>
+        <v>181.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9362,10 +8826,10 @@
         <v>182</v>
       </c>
       <c r="F241" t="n">
-        <v>841.3849</v>
+        <v>2567.5191</v>
       </c>
       <c r="G241" t="n">
-        <v>183.6</v>
+        <v>181.7333333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9397,10 +8861,10 @@
         <v>182</v>
       </c>
       <c r="F242" t="n">
-        <v>2074.3516</v>
+        <v>841.3849</v>
       </c>
       <c r="G242" t="n">
-        <v>183</v>
+        <v>181.7833333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9420,22 +8884,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C243" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D243" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E243" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F243" t="n">
-        <v>1366.7526</v>
+        <v>2074.3516</v>
       </c>
       <c r="G243" t="n">
-        <v>182.2</v>
+        <v>181.8333333333333</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9467,10 +8931,10 @@
         <v>181</v>
       </c>
       <c r="F244" t="n">
-        <v>4120.3424</v>
+        <v>1366.7526</v>
       </c>
       <c r="G244" t="n">
-        <v>181.6</v>
+        <v>181.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9493,19 +8957,19 @@
         <v>181</v>
       </c>
       <c r="C245" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D245" t="n">
         <v>181</v>
       </c>
       <c r="E245" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F245" t="n">
-        <v>5945.3438</v>
+        <v>4120.3424</v>
       </c>
       <c r="G245" t="n">
-        <v>181.2</v>
+        <v>181.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9525,22 +8989,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C246" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D246" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E246" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F246" t="n">
-        <v>87.9054</v>
+        <v>5945.3438</v>
       </c>
       <c r="G246" t="n">
-        <v>181.2</v>
+        <v>181.8666666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9560,22 +9024,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C247" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D247" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E247" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F247" t="n">
-        <v>6147.5409</v>
+        <v>87.9054</v>
       </c>
       <c r="G247" t="n">
-        <v>181.4</v>
+        <v>181.9166666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9595,7 +9059,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C248" t="n">
         <v>183</v>
@@ -9604,13 +9068,13 @@
         <v>183</v>
       </c>
       <c r="E248" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F248" t="n">
-        <v>1876.0017</v>
+        <v>6147.5409</v>
       </c>
       <c r="G248" t="n">
-        <v>181.8</v>
+        <v>181.9833333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9630,7 +9094,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C249" t="n">
         <v>183</v>
@@ -9639,13 +9103,13 @@
         <v>183</v>
       </c>
       <c r="E249" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F249" t="n">
-        <v>49.44262295081968</v>
+        <v>1876.0017</v>
       </c>
       <c r="G249" t="n">
-        <v>182.2</v>
+        <v>182.0666666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9677,10 +9141,10 @@
         <v>183</v>
       </c>
       <c r="F250" t="n">
-        <v>372.6999</v>
+        <v>49.44262295081968</v>
       </c>
       <c r="G250" t="n">
-        <v>182.8</v>
+        <v>182.1166666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9700,22 +9164,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C251" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D251" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E251" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F251" t="n">
-        <v>194.6</v>
+        <v>372.6999</v>
       </c>
       <c r="G251" t="n">
-        <v>182.8</v>
+        <v>182.1666666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9735,22 +9199,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C252" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D252" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E252" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F252" t="n">
-        <v>7008.1874</v>
+        <v>194.6</v>
       </c>
       <c r="G252" t="n">
-        <v>182.4</v>
+        <v>182.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9782,10 +9246,10 @@
         <v>181</v>
       </c>
       <c r="F253" t="n">
-        <v>1070</v>
+        <v>7008.1874</v>
       </c>
       <c r="G253" t="n">
-        <v>182</v>
+        <v>182.2166666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9805,22 +9269,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C254" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D254" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E254" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F254" t="n">
-        <v>1</v>
+        <v>1070</v>
       </c>
       <c r="G254" t="n">
-        <v>182</v>
+        <v>182.2333333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9840,22 +9304,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C255" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D255" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E255" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F255" t="n">
-        <v>4689.4141</v>
+        <v>1</v>
       </c>
       <c r="G255" t="n">
-        <v>181.2</v>
+        <v>182.2666666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9875,22 +9339,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C256" t="n">
         <v>179</v>
       </c>
       <c r="D256" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E256" t="n">
         <v>179</v>
       </c>
       <c r="F256" t="n">
-        <v>2332.5598</v>
+        <v>4689.4141</v>
       </c>
       <c r="G256" t="n">
-        <v>180.6</v>
+        <v>182.25</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9919,13 +9383,13 @@
         <v>179</v>
       </c>
       <c r="E257" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F257" t="n">
-        <v>5250</v>
+        <v>2332.5598</v>
       </c>
       <c r="G257" t="n">
-        <v>180.2</v>
+        <v>182.2333333333333</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9948,7 +9412,7 @@
         <v>179</v>
       </c>
       <c r="C258" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D258" t="n">
         <v>179</v>
@@ -9957,10 +9421,10 @@
         <v>178</v>
       </c>
       <c r="F258" t="n">
-        <v>2580.1421</v>
+        <v>5250</v>
       </c>
       <c r="G258" t="n">
-        <v>179.6</v>
+        <v>182.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9983,19 +9447,19 @@
         <v>179</v>
       </c>
       <c r="C259" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D259" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E259" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F259" t="n">
-        <v>223.602</v>
+        <v>2580.1421</v>
       </c>
       <c r="G259" t="n">
-        <v>179</v>
+        <v>182.1333333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10018,19 +9482,19 @@
         <v>179</v>
       </c>
       <c r="C260" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D260" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E260" t="n">
         <v>179</v>
       </c>
       <c r="F260" t="n">
-        <v>240.391</v>
+        <v>223.602</v>
       </c>
       <c r="G260" t="n">
-        <v>179</v>
+        <v>182.1166666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10062,10 +9526,10 @@
         <v>179</v>
       </c>
       <c r="F261" t="n">
-        <v>240.0446</v>
+        <v>240.391</v>
       </c>
       <c r="G261" t="n">
-        <v>179</v>
+        <v>182.0833333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10097,10 +9561,10 @@
         <v>179</v>
       </c>
       <c r="F262" t="n">
-        <v>15530.2949</v>
+        <v>240.0446</v>
       </c>
       <c r="G262" t="n">
-        <v>179</v>
+        <v>182.0166666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10132,10 +9596,10 @@
         <v>179</v>
       </c>
       <c r="F263" t="n">
-        <v>4202.9118</v>
+        <v>15530.2949</v>
       </c>
       <c r="G263" t="n">
-        <v>179.2</v>
+        <v>181.9833333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10167,10 +9631,10 @@
         <v>179</v>
       </c>
       <c r="F264" t="n">
-        <v>934.1594</v>
+        <v>4202.9118</v>
       </c>
       <c r="G264" t="n">
-        <v>179</v>
+        <v>181.95</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10202,10 +9666,10 @@
         <v>179</v>
       </c>
       <c r="F265" t="n">
-        <v>597.1564</v>
+        <v>934.1594</v>
       </c>
       <c r="G265" t="n">
-        <v>179</v>
+        <v>181.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10225,22 +9689,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C266" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D266" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E266" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F266" t="n">
-        <v>524.0327</v>
+        <v>597.1564</v>
       </c>
       <c r="G266" t="n">
-        <v>178.8</v>
+        <v>181.85</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10260,22 +9724,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C267" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D267" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E267" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F267" t="n">
-        <v>615</v>
+        <v>524.0327</v>
       </c>
       <c r="G267" t="n">
-        <v>178.8</v>
+        <v>181.7833333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10295,22 +9759,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C268" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D268" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E268" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F268" t="n">
-        <v>10719.9613</v>
+        <v>615</v>
       </c>
       <c r="G268" t="n">
-        <v>178.6</v>
+        <v>181.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10330,22 +9794,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C269" t="n">
         <v>178</v>
       </c>
       <c r="D269" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E269" t="n">
         <v>178</v>
       </c>
       <c r="F269" t="n">
-        <v>17249.0682</v>
+        <v>10719.9613</v>
       </c>
       <c r="G269" t="n">
-        <v>178.4</v>
+        <v>181.6333333333333</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10368,19 +9832,19 @@
         <v>178</v>
       </c>
       <c r="C270" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D270" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E270" t="n">
         <v>178</v>
       </c>
       <c r="F270" t="n">
-        <v>5299.4403</v>
+        <v>17249.0682</v>
       </c>
       <c r="G270" t="n">
-        <v>178.6</v>
+        <v>181.5166666666667</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10403,19 +9867,19 @@
         <v>178</v>
       </c>
       <c r="C271" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D271" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E271" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F271" t="n">
-        <v>6147.9998</v>
+        <v>5299.4403</v>
       </c>
       <c r="G271" t="n">
-        <v>178.4</v>
+        <v>181.4666666666667</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10435,22 +9899,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C272" t="n">
         <v>177</v>
       </c>
       <c r="D272" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E272" t="n">
         <v>177</v>
       </c>
       <c r="F272" t="n">
-        <v>321</v>
+        <v>6147.9998</v>
       </c>
       <c r="G272" t="n">
-        <v>178</v>
+        <v>181.3666666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10482,10 +9946,10 @@
         <v>177</v>
       </c>
       <c r="F273" t="n">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="G273" t="n">
-        <v>177.8</v>
+        <v>181.2666666666667</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10517,10 +9981,10 @@
         <v>177</v>
       </c>
       <c r="F274" t="n">
-        <v>244.9999</v>
+        <v>291</v>
       </c>
       <c r="G274" t="n">
-        <v>177.6</v>
+        <v>181.1666666666667</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10543,19 +10007,19 @@
         <v>177</v>
       </c>
       <c r="C275" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D275" t="n">
         <v>177</v>
       </c>
       <c r="E275" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F275" t="n">
-        <v>20171.3952</v>
+        <v>244.9999</v>
       </c>
       <c r="G275" t="n">
-        <v>176.8</v>
+        <v>181.0666666666667</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10578,19 +10042,19 @@
         <v>177</v>
       </c>
       <c r="C276" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D276" t="n">
         <v>177</v>
       </c>
       <c r="E276" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F276" t="n">
-        <v>33.466</v>
+        <v>20171.3952</v>
       </c>
       <c r="G276" t="n">
-        <v>176.8</v>
+        <v>180.95</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10613,19 +10077,19 @@
         <v>177</v>
       </c>
       <c r="C277" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D277" t="n">
         <v>177</v>
       </c>
       <c r="E277" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F277" t="n">
-        <v>200</v>
+        <v>33.466</v>
       </c>
       <c r="G277" t="n">
-        <v>176.6</v>
+        <v>180.85</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10645,22 +10109,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C278" t="n">
         <v>176</v>
       </c>
       <c r="D278" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E278" t="n">
         <v>176</v>
       </c>
       <c r="F278" t="n">
-        <v>1346</v>
+        <v>200</v>
       </c>
       <c r="G278" t="n">
-        <v>176.4</v>
+        <v>180.7166666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10692,10 +10156,10 @@
         <v>176</v>
       </c>
       <c r="F279" t="n">
-        <v>914.816</v>
+        <v>1346</v>
       </c>
       <c r="G279" t="n">
-        <v>176.2</v>
+        <v>180.5833333333333</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10727,10 +10191,10 @@
         <v>176</v>
       </c>
       <c r="F280" t="n">
-        <v>1118.6321</v>
+        <v>914.816</v>
       </c>
       <c r="G280" t="n">
-        <v>176.2</v>
+        <v>180.4333333333333</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10750,22 +10214,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C281" t="n">
         <v>176</v>
       </c>
       <c r="D281" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E281" t="n">
         <v>176</v>
       </c>
       <c r="F281" t="n">
-        <v>200</v>
+        <v>1118.6321</v>
       </c>
       <c r="G281" t="n">
-        <v>176</v>
+        <v>180.3166666666667</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10800,7 +10264,7 @@
         <v>200</v>
       </c>
       <c r="G282" t="n">
-        <v>176</v>
+        <v>180.2166666666667</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10820,22 +10284,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C283" t="n">
         <v>176</v>
       </c>
       <c r="D283" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E283" t="n">
         <v>176</v>
       </c>
       <c r="F283" t="n">
-        <v>2335.0619</v>
+        <v>200</v>
       </c>
       <c r="G283" t="n">
-        <v>176</v>
+        <v>180.1166666666667</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10855,22 +10319,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C284" t="n">
         <v>176</v>
       </c>
       <c r="D284" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E284" t="n">
         <v>176</v>
       </c>
       <c r="F284" t="n">
-        <v>1574.8617</v>
+        <v>2335.0619</v>
       </c>
       <c r="G284" t="n">
-        <v>176</v>
+        <v>180.0166666666667</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10890,22 +10354,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C285" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D285" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E285" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F285" t="n">
-        <v>4407.9999</v>
+        <v>1574.8617</v>
       </c>
       <c r="G285" t="n">
-        <v>175.8</v>
+        <v>179.9333333333333</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10937,10 +10401,10 @@
         <v>175</v>
       </c>
       <c r="F286" t="n">
-        <v>3010.0569</v>
+        <v>4407.9999</v>
       </c>
       <c r="G286" t="n">
-        <v>175.6</v>
+        <v>179.85</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10963,19 +10427,19 @@
         <v>175</v>
       </c>
       <c r="C287" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D287" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E287" t="n">
         <v>175</v>
       </c>
       <c r="F287" t="n">
-        <v>914.3977</v>
+        <v>3010.0569</v>
       </c>
       <c r="G287" t="n">
-        <v>175.6</v>
+        <v>179.7333333333333</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10998,19 +10462,19 @@
         <v>175</v>
       </c>
       <c r="C288" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D288" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E288" t="n">
         <v>175</v>
       </c>
       <c r="F288" t="n">
-        <v>0.9432</v>
+        <v>914.3977</v>
       </c>
       <c r="G288" t="n">
-        <v>175.4</v>
+        <v>179.6166666666667</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -11030,22 +10494,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C289" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D289" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E289" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F289" t="n">
-        <v>1</v>
+        <v>0.9432</v>
       </c>
       <c r="G289" t="n">
-        <v>175.4</v>
+        <v>179.5166666666667</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -11065,22 +10529,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C290" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D290" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E290" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F290" t="n">
-        <v>1101.2812</v>
+        <v>1</v>
       </c>
       <c r="G290" t="n">
-        <v>175</v>
+        <v>179.45</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -11103,19 +10567,19 @@
         <v>173</v>
       </c>
       <c r="C291" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D291" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E291" t="n">
         <v>173</v>
       </c>
       <c r="F291" t="n">
-        <v>6648.0185</v>
+        <v>1101.2812</v>
       </c>
       <c r="G291" t="n">
-        <v>175.2</v>
+        <v>179.3166666666667</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11138,19 +10602,19 @@
         <v>173</v>
       </c>
       <c r="C292" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D292" t="n">
+        <v>176</v>
+      </c>
+      <c r="E292" t="n">
         <v>173</v>
       </c>
-      <c r="E292" t="n">
-        <v>172</v>
-      </c>
       <c r="F292" t="n">
-        <v>1130.9193</v>
+        <v>6648.0185</v>
       </c>
       <c r="G292" t="n">
-        <v>174.4</v>
+        <v>179.2333333333333</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11170,22 +10634,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
+        <v>173</v>
+      </c>
+      <c r="C293" t="n">
         <v>172</v>
       </c>
-      <c r="C293" t="n">
-        <v>171</v>
-      </c>
       <c r="D293" t="n">
+        <v>173</v>
+      </c>
+      <c r="E293" t="n">
         <v>172</v>
       </c>
-      <c r="E293" t="n">
-        <v>171</v>
-      </c>
       <c r="F293" t="n">
-        <v>13739.8462</v>
+        <v>1130.9193</v>
       </c>
       <c r="G293" t="n">
-        <v>173.6</v>
+        <v>179.0833333333333</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11205,22 +10669,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
+        <v>172</v>
+      </c>
+      <c r="C294" t="n">
         <v>171</v>
       </c>
-      <c r="C294" t="n">
-        <v>173</v>
-      </c>
       <c r="D294" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E294" t="n">
         <v>171</v>
       </c>
       <c r="F294" t="n">
-        <v>5087.1628</v>
+        <v>13739.8462</v>
       </c>
       <c r="G294" t="n">
-        <v>173</v>
+        <v>178.9333333333333</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11243,19 +10707,19 @@
         <v>171</v>
       </c>
       <c r="C295" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D295" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E295" t="n">
         <v>171</v>
       </c>
       <c r="F295" t="n">
-        <v>1106.132</v>
+        <v>5087.1628</v>
       </c>
       <c r="G295" t="n">
-        <v>172.6</v>
+        <v>178.75</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11275,22 +10739,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C296" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D296" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E296" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F296" t="n">
-        <v>2132.6962</v>
+        <v>1106.132</v>
       </c>
       <c r="G296" t="n">
-        <v>172</v>
+        <v>178.5333333333333</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11322,23 +10786,19 @@
         <v>173</v>
       </c>
       <c r="F297" t="n">
-        <v>531.289</v>
+        <v>2132.6962</v>
       </c>
       <c r="G297" t="n">
-        <v>172.2</v>
+        <v>178.3333333333333</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>173</v>
-      </c>
-      <c r="K297" t="n">
-        <v>173</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
@@ -11361,28 +10821,20 @@
         <v>173</v>
       </c>
       <c r="F298" t="n">
-        <v>1835.3112</v>
+        <v>531.289</v>
       </c>
       <c r="G298" t="n">
-        <v>172.6</v>
+        <v>178.1333333333333</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>173</v>
-      </c>
-      <c r="K298" t="n">
-        <v>173</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11404,28 +10856,20 @@
         <v>173</v>
       </c>
       <c r="F299" t="n">
-        <v>3340.0858</v>
+        <v>1835.3112</v>
       </c>
       <c r="G299" t="n">
-        <v>172.6</v>
+        <v>177.9333333333333</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>173</v>
-      </c>
-      <c r="K299" t="n">
-        <v>173</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11447,23 +10891,19 @@
         <v>173</v>
       </c>
       <c r="F300" t="n">
-        <v>311</v>
+        <v>3340.0858</v>
       </c>
       <c r="G300" t="n">
-        <v>173</v>
+        <v>177.75</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>173</v>
-      </c>
-      <c r="K300" t="n">
-        <v>173</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
@@ -11474,40 +10914,32 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C301" t="n">
         <v>173</v>
       </c>
       <c r="D301" t="n">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E301" t="n">
         <v>173</v>
       </c>
       <c r="F301" t="n">
-        <v>398</v>
+        <v>311</v>
       </c>
       <c r="G301" t="n">
-        <v>173</v>
+        <v>177.6</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>173</v>
-      </c>
-      <c r="K301" t="n">
-        <v>173</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11517,22 +10949,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C302" t="n">
         <v>173</v>
       </c>
       <c r="D302" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E302" t="n">
         <v>173</v>
       </c>
       <c r="F302" t="n">
-        <v>4509.0417</v>
+        <v>398</v>
       </c>
       <c r="G302" t="n">
-        <v>173</v>
+        <v>177.45</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11541,14 +10973,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>173</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11558,22 +10984,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C303" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D303" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E303" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F303" t="n">
-        <v>10962.3719</v>
+        <v>4509.0417</v>
       </c>
       <c r="G303" t="n">
-        <v>172.6</v>
+        <v>177.3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11582,14 +11008,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>173</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11599,22 +11019,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C304" t="n">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D304" t="n">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E304" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F304" t="n">
-        <v>3175.3954</v>
+        <v>10962.3719</v>
       </c>
       <c r="G304" t="n">
-        <v>173.2</v>
+        <v>177.1333333333333</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11623,14 +11043,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>173</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11640,22 +11054,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C305" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D305" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E305" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F305" t="n">
-        <v>50.9746</v>
+        <v>3175.3954</v>
       </c>
       <c r="G305" t="n">
-        <v>173.4</v>
+        <v>177.05</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11664,14 +11078,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>173</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11681,22 +11089,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C306" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D306" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E306" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F306" t="n">
-        <v>1</v>
+        <v>50.9746</v>
       </c>
       <c r="G306" t="n">
-        <v>174</v>
+        <v>176.95</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11705,14 +11113,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>173</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11722,22 +11124,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C307" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D307" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E307" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F307" t="n">
-        <v>362.969</v>
+        <v>1</v>
       </c>
       <c r="G307" t="n">
-        <v>174.2</v>
+        <v>176.85</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11746,14 +11148,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>173</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11763,22 +11159,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C308" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D308" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E308" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F308" t="n">
-        <v>21.7102</v>
+        <v>362.969</v>
       </c>
       <c r="G308" t="n">
-        <v>175.2</v>
+        <v>176.7</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11787,14 +11183,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>173</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11804,22 +11194,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C309" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D309" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E309" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F309" t="n">
-        <v>1</v>
+        <v>21.7102</v>
       </c>
       <c r="G309" t="n">
-        <v>174.6</v>
+        <v>176.5833333333333</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11828,14 +11218,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>173</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11845,22 +11229,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C310" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D310" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E310" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F310" t="n">
-        <v>4557</v>
+        <v>1</v>
       </c>
       <c r="G310" t="n">
-        <v>175</v>
+        <v>176.4166666666667</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11869,14 +11253,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>173</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11889,19 +11267,19 @@
         <v>175</v>
       </c>
       <c r="C311" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D311" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E311" t="n">
         <v>175</v>
       </c>
       <c r="F311" t="n">
-        <v>47.8108</v>
+        <v>4557</v>
       </c>
       <c r="G311" t="n">
-        <v>174.8</v>
+        <v>176.3</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11910,14 +11288,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>173</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11927,22 +11299,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C312" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D312" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E312" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F312" t="n">
-        <v>401</v>
+        <v>47.8108</v>
       </c>
       <c r="G312" t="n">
-        <v>175.2</v>
+        <v>176.1833333333333</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11951,14 +11323,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>173</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11968,22 +11334,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C313" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D313" t="n">
         <v>176</v>
       </c>
       <c r="E313" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F313" t="n">
-        <v>496.1028</v>
+        <v>401</v>
       </c>
       <c r="G313" t="n">
-        <v>174.6</v>
+        <v>176.1</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11992,14 +11358,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>173</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12009,22 +11369,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C314" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D314" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E314" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F314" t="n">
-        <v>2615.8623</v>
+        <v>496.1028</v>
       </c>
       <c r="G314" t="n">
-        <v>175</v>
+        <v>175.9666666666667</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -12033,14 +11393,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>173</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12050,22 +11404,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C315" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D315" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E315" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F315" t="n">
-        <v>26</v>
+        <v>2615.8623</v>
       </c>
       <c r="G315" t="n">
-        <v>174.6</v>
+        <v>175.8333333333333</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -12074,14 +11428,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>173</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12103,27 +11451,56 @@
         <v>174</v>
       </c>
       <c r="F316" t="n">
+        <v>26</v>
+      </c>
+      <c r="G316" t="n">
+        <v>175.75</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>174</v>
+      </c>
+      <c r="C317" t="n">
+        <v>174</v>
+      </c>
+      <c r="D317" t="n">
+        <v>174</v>
+      </c>
+      <c r="E317" t="n">
+        <v>174</v>
+      </c>
+      <c r="F317" t="n">
         <v>1349.1436</v>
       </c>
-      <c r="G316" t="n">
-        <v>174.4</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>173</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M316" t="n">
+      <c r="G317" t="n">
+        <v>175.6666666666667</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest RDN.xlsx
+++ b/BackTest/2019-10-26 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,17 +1441,11 @@
         <v>-890.0734444444488</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1480,17 +1474,11 @@
         <v>3922.225555555551</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1523,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1556,17 +1540,11 @@
         <v>3932.480455555551</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1599,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1636,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1669,17 +1639,11 @@
         <v>3932.480455555551</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1708,17 +1672,11 @@
         <v>3932.480455555551</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1747,17 +1705,11 @@
         <v>3932.480455555551</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1786,17 +1738,11 @@
         <v>2372.480455555551</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1825,17 +1771,11 @@
         <v>2372.480455555551</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1864,17 +1804,11 @@
         <v>-5760.493144444449</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1903,17 +1837,11 @@
         <v>-5200.689144444449</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1942,17 +1870,11 @@
         <v>-5200.689144444449</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1981,17 +1903,11 @@
         <v>-2395.263144444449</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2020,17 +1936,11 @@
         <v>-2779.282544444449</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2059,17 +1969,11 @@
         <v>-2779.282544444449</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2098,17 +2002,11 @@
         <v>-2779.282544444449</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2141,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2174,17 +2068,11 @@
         <v>-2779.282544444449</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2217,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2291,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2328,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2402,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2439,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2476,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2513,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2550,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2587,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2624,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2661,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2698,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2735,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2772,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2809,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2846,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2883,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2920,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2957,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2994,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3031,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3068,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3101,16 +2893,14 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
       <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -3235,7 +3025,7 @@
         <v>-9142.96694444445</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3268,7 +3058,7 @@
         <v>-9544.96694444445</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3301,7 +3091,7 @@
         <v>-9544.96694444445</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3334,7 +3124,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3367,7 +3157,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3466,7 +3256,7 @@
         <v>-16094.62691295274</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3532,7 +3322,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3895,7 +3685,7 @@
         <v>-19085.93631295273</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3928,7 +3718,7 @@
         <v>-19085.93631295273</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4159,7 +3949,7 @@
         <v>-18840.98771295273</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -5380,7 +5170,7 @@
         <v>-10286.84920657751</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5413,7 +5203,7 @@
         <v>-12010.99930657751</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5446,7 +5236,7 @@
         <v>-17639.02800657751</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5479,7 +5269,7 @@
         <v>-17639.02800657751</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5512,7 +5302,7 @@
         <v>-17639.02800657751</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5545,7 +5335,7 @@
         <v>-17632.36140657751</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5578,7 +5368,7 @@
         <v>-20848.36140657751</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5710,7 +5500,7 @@
         <v>-18690.54030657751</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5776,7 +5566,7 @@
         <v>-21943.63030657751</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5809,7 +5599,7 @@
         <v>-21943.63030657751</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5842,7 +5632,7 @@
         <v>-19343.63030657751</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5875,7 +5665,7 @@
         <v>-29410.16080657751</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5908,7 +5698,7 @@
         <v>-42074.46080657751</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5941,7 +5731,7 @@
         <v>-40265.46080657751</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5974,7 +5764,7 @@
         <v>-50562.16080657751</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6007,7 +5797,7 @@
         <v>-50562.16080657751</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -8581,7 +8371,7 @@
         <v>-60629.22255720894</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8614,7 +8404,7 @@
         <v>-52134.52615720894</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8647,7 +8437,7 @@
         <v>-25169.40805720894</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8680,7 +8470,7 @@
         <v>-25401.40805720894</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8713,7 +8503,7 @@
         <v>-25401.40805720894</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8746,7 +8536,7 @@
         <v>-25498.13185720894</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9241,7 +9031,7 @@
         <v>-2901.076257208939</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9274,7 +9064,7 @@
         <v>-1901.076257208939</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9307,7 +9097,7 @@
         <v>-1901.076257208939</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9340,7 +9130,7 @@
         <v>-1901.076257208939</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9373,7 +9163,7 @@
         <v>-1888.375170252417</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9406,7 +9196,7 @@
         <v>-2611.375070252417</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9439,7 +9229,7 @@
         <v>2595.524742791061</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9472,7 +9262,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9505,7 +9295,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9538,7 +9328,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9571,7 +9361,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9604,7 +9394,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9637,7 +9427,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9670,7 +9460,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9703,7 +9493,7 @@
         <v>-15273.92105720894</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9736,7 +9526,7 @@
         <v>-15273.92105720894</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9769,7 +9559,7 @@
         <v>-14748.57495720894</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9802,7 +9592,7 @@
         <v>-16553.32465720894</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9835,7 +9625,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9868,7 +9658,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9901,7 +9691,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9934,7 +9724,7 @@
         <v>-56607.89755720894</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9967,7 +9757,7 @@
         <v>-57891.33675720894</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10000,7 +9790,7 @@
         <v>-57890.33675720894</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10033,7 +9823,7 @@
         <v>-57889.33675720894</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10066,7 +9856,7 @@
         <v>-59091.23445720894</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10099,7 +9889,7 @@
         <v>-59291.23445720894</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10132,7 +9922,7 @@
         <v>-57777.00715720894</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10165,7 +9955,7 @@
         <v>-57777.00715720894</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10198,7 +9988,7 @@
         <v>-57777.00715720894</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10231,7 +10021,7 @@
         <v>-57795.00715720894</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10264,7 +10054,7 @@
         <v>-57251.52889633938</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10297,7 +10087,7 @@
         <v>-57251.52889633938</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10330,7 +10120,7 @@
         <v>-56329.60010668015</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10363,7 +10153,7 @@
         <v>-56329.60010668015</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10396,7 +10186,7 @@
         <v>-56329.60010668015</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10429,7 +10219,7 @@
         <v>-57013.53480668015</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10462,7 +10252,7 @@
         <v>-59581.05390668015</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10495,7 +10285,7 @@
         <v>-59581.05390668015</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10528,7 +10318,7 @@
         <v>-59581.05390668015</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10561,7 +10351,7 @@
         <v>-60947.80650668015</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10594,7 +10384,7 @@
         <v>-60947.80650668015</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10627,7 +10417,7 @@
         <v>-66893.15030668015</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10660,7 +10450,7 @@
         <v>-66805.24490668015</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10693,7 +10483,7 @@
         <v>-60657.70400668015</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10726,7 +10516,7 @@
         <v>-60657.70400668015</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10759,7 +10549,7 @@
         <v>-60657.70400668015</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10792,7 +10582,7 @@
         <v>-60657.70400668015</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10825,7 +10615,7 @@
         <v>-60852.30400668015</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10858,7 +10648,7 @@
         <v>-67860.49140668014</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10891,7 +10681,7 @@
         <v>-67860.49140668014</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10924,7 +10714,7 @@
         <v>-67859.49140668014</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10957,7 +10747,7 @@
         <v>-72548.90550668014</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10990,7 +10780,7 @@
         <v>-72548.90550668014</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11023,7 +10813,7 @@
         <v>-72548.90550668014</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11056,7 +10846,7 @@
         <v>-75129.04760668013</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11089,7 +10879,7 @@
         <v>-74905.44560668014</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11122,7 +10912,7 @@
         <v>-75145.83660668014</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11155,7 +10945,7 @@
         <v>-75145.83660668014</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11188,7 +10978,7 @@
         <v>-75145.83660668014</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11221,7 +11011,7 @@
         <v>-75145.83660668014</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11254,7 +11044,7 @@
         <v>-75145.83660668014</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11320,7 +11110,7 @@
         <v>-75669.86930668014</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11353,7 +11143,7 @@
         <v>-75054.86930668014</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11386,7 +11176,7 @@
         <v>-85774.83060668013</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11419,7 +11209,7 @@
         <v>-85774.83060668013</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11452,7 +11242,7 @@
         <v>-80475.39030668013</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11485,7 +11275,7 @@
         <v>-86623.39010668013</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11650,7 +11440,7 @@
         <v>-106761.3193066801</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11683,7 +11473,7 @@
         <v>-106961.3193066801</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11716,7 +11506,7 @@
         <v>-106961.3193066801</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11749,7 +11539,7 @@
         <v>-106961.3193066801</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12310,10 +12100,14 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>171</v>
+      </c>
+      <c r="J355" t="n">
+        <v>171</v>
+      </c>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
@@ -12343,11 +12137,19 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>173</v>
+      </c>
+      <c r="J356" t="n">
+        <v>171</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12376,11 +12178,19 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>173</v>
+      </c>
+      <c r="J357" t="n">
+        <v>171</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12409,10 +12219,14 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>173</v>
+      </c>
+      <c r="J358" t="n">
+        <v>173</v>
+      </c>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
@@ -12442,11 +12256,19 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>173</v>
+      </c>
+      <c r="J359" t="n">
+        <v>173</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12475,11 +12297,19 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>173</v>
+      </c>
+      <c r="J360" t="n">
+        <v>173</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12511,8 +12341,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>173</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12544,8 +12380,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>173</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12574,11 +12416,19 @@
         <v>-121452.1424066801</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>171</v>
+      </c>
+      <c r="J363" t="n">
+        <v>173</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12607,11 +12457,19 @@
         <v>-121503.1170066801</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>176</v>
+      </c>
+      <c r="J364" t="n">
+        <v>173</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12640,11 +12498,19 @@
         <v>-121502.1170066801</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>174</v>
+      </c>
+      <c r="J365" t="n">
+        <v>173</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12673,11 +12539,19 @@
         <v>-121865.0860066801</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>176</v>
+      </c>
+      <c r="J366" t="n">
+        <v>173</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12706,11 +12580,19 @@
         <v>-121843.3758066801</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>174</v>
+      </c>
+      <c r="J367" t="n">
+        <v>173</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12739,15 +12621,19 @@
         <v>-121844.3758066801</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>176</v>
       </c>
       <c r="J368" t="n">
-        <v>176</v>
-      </c>
-      <c r="K368" t="inlineStr"/>
+        <v>173</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12776,17 +12662,17 @@
         <v>-117287.3758066801</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>173</v>
       </c>
       <c r="J369" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L369" t="n">
@@ -12817,13 +12703,13 @@
         <v>-117335.1866066801</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>176</v>
       </c>
       <c r="J370" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12858,11 +12744,13 @@
         <v>-116934.1866066801</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>175</v>
+      </c>
       <c r="J371" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12897,11 +12785,13 @@
         <v>-117430.2894066801</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>176</v>
+      </c>
       <c r="J372" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12936,11 +12826,13 @@
         <v>-114814.4271066801</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>173</v>
+      </c>
       <c r="J373" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12975,11 +12867,13 @@
         <v>-114840.4271066801</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>175</v>
+      </c>
       <c r="J374" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13014,11 +12908,13 @@
         <v>-114840.4271066801</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>174</v>
+      </c>
       <c r="J375" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13053,11 +12949,13 @@
         <v>-115420.4271066801</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>174</v>
+      </c>
       <c r="J376" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13092,11 +12990,13 @@
         <v>-115420.4271066801</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>173</v>
+      </c>
       <c r="J377" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13131,13 +13031,13 @@
         <v>-115419.4271066801</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>173</v>
       </c>
       <c r="J378" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13172,11 +13072,13 @@
         <v>-117929.2895066801</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>175</v>
+      </c>
       <c r="J379" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13211,13 +13113,13 @@
         <v>-117928.2895066801</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>173</v>
       </c>
       <c r="J380" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13252,13 +13154,13 @@
         <v>-117928.2895066801</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>174</v>
       </c>
       <c r="J381" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13293,13 +13195,13 @@
         <v>-115471.4781066801</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>174</v>
       </c>
       <c r="J382" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13334,13 +13236,13 @@
         <v>-115493.1340066801</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>175</v>
       </c>
       <c r="J383" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13375,13 +13277,13 @@
         <v>-115493.1340066801</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>173</v>
       </c>
       <c r="J384" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13416,13 +13318,13 @@
         <v>-115470.4781066801</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>173</v>
       </c>
       <c r="J385" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13435,6 +13337,6 @@
       <c r="M385" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest RDN.xlsx
+++ b/BackTest/2019-10-26 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2761,7 +2761,7 @@
         <v>-7953.075144444449</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-10762.06374444445</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-12383.86044444445</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-9342.96694444445</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-9142.96694444445</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-9544.96694444445</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-9544.96694444445</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-6317.041144444449</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-16094.62691295274</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-17805.62691295274</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-17805.62691295274</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-17804.62691295274</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-19300.65791295273</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-19300.65791295273</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-19085.93631295273</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-19085.93631295273</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-18840.98771295273</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-21943.63030657751</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-19343.63030657751</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-29410.16080657751</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-42074.46080657751</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-40265.46080657751</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-50562.16080657751</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-50562.16080657751</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-27262.32330602503</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-27262.32330602503</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1322.376693974973</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-28465.97845720893</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-28464.88455720893</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-31773.84285720893</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-25497.13185720894</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-25497.13185720894</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-21917.39705720894</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-24687.27125720894</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1888.375170252417</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>2595.524742791061</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-15273.92105720894</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-15273.92105720894</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-14748.57495720894</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-16553.32465720894</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-56607.89755720894</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-57891.33675720894</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-57890.33675720894</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-57889.33675720894</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-59091.23445720894</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-59291.23445720894</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-57777.00715720894</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-57777.00715720894</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-57777.00715720894</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-57795.00715720894</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-57251.52889633938</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-57251.52889633938</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-56329.60010668015</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-56329.60010668015</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-56329.60010668015</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-57013.53480668015</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-59581.05390668015</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-59581.05390668015</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-59581.05390668015</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-60947.80650668015</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-60947.80650668015</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-66893.15030668015</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-66805.24490668015</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-60657.70400668015</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-60657.70400668015</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-60657.70400668015</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-60657.70400668015</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-60852.30400668015</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-67860.49140668014</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-67860.49140668014</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-67859.49140668014</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-72548.90550668014</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-72548.90550668014</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-72548.90550668014</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-75129.04760668013</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-74905.44560668014</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-75145.83660668014</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-75145.83660668014</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-75145.83660668014</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12100,14 +12100,10 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>171</v>
-      </c>
-      <c r="J355" t="n">
-        <v>171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
@@ -12137,19 +12133,11 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>173</v>
-      </c>
-      <c r="J356" t="n">
-        <v>171</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12178,19 +12166,11 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>173</v>
-      </c>
-      <c r="J357" t="n">
-        <v>171</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12219,14 +12199,10 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>173</v>
-      </c>
-      <c r="J358" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
@@ -12264,11 +12240,7 @@
       <c r="J359" t="n">
         <v>173</v>
       </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12457,11 +12429,9 @@
         <v>-121503.1170066801</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
         <v>173</v>
       </c>
@@ -12498,11 +12468,9 @@
         <v>-121502.1170066801</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
         <v>173</v>
       </c>
@@ -12539,11 +12507,9 @@
         <v>-121865.0860066801</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
         <v>173</v>
       </c>
@@ -12580,11 +12546,9 @@
         <v>-121843.3758066801</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
         <v>173</v>
       </c>
@@ -12621,11 +12585,9 @@
         <v>-121844.3758066801</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
         <v>173</v>
       </c>
@@ -12662,11 +12624,9 @@
         <v>-117287.3758066801</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
         <v>173</v>
       </c>
@@ -12703,11 +12663,9 @@
         <v>-117335.1866066801</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
         <v>173</v>
       </c>
@@ -12744,11 +12702,9 @@
         <v>-116934.1866066801</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
         <v>173</v>
       </c>
@@ -12785,11 +12741,9 @@
         <v>-117430.2894066801</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
         <v>173</v>
       </c>
@@ -12826,11 +12780,9 @@
         <v>-114814.4271066801</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
         <v>173</v>
       </c>
@@ -12867,11 +12819,9 @@
         <v>-114840.4271066801</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
         <v>173</v>
       </c>
@@ -12908,11 +12858,9 @@
         <v>-114840.4271066801</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
         <v>173</v>
       </c>
@@ -12949,11 +12897,9 @@
         <v>-115420.4271066801</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
         <v>173</v>
       </c>
@@ -12990,11 +12936,9 @@
         <v>-115420.4271066801</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
         <v>173</v>
       </c>
@@ -13031,11 +12975,9 @@
         <v>-115419.4271066801</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
         <v>173</v>
       </c>
@@ -13072,11 +13014,9 @@
         <v>-117929.2895066801</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
         <v>173</v>
       </c>
@@ -13113,11 +13053,9 @@
         <v>-117928.2895066801</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
         <v>173</v>
       </c>
@@ -13154,11 +13092,9 @@
         <v>-117928.2895066801</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
         <v>173</v>
       </c>
@@ -13195,11 +13131,9 @@
         <v>-115471.4781066801</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
         <v>173</v>
       </c>
@@ -13236,11 +13170,9 @@
         <v>-115493.1340066801</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
         <v>173</v>
       </c>
@@ -13277,11 +13209,9 @@
         <v>-115493.1340066801</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
         <v>173</v>
       </c>
@@ -13318,11 +13248,9 @@
         <v>-115470.4781066801</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
         <v>173</v>
       </c>
@@ -13337,6 +13265,6 @@
       <c r="M385" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest RDN.xlsx
+++ b/BackTest/2019-10-26 BackTest RDN.xlsx
@@ -2761,7 +2761,7 @@
         <v>-7953.075144444449</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-10762.06374444445</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-12383.86044444445</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-9342.96694444445</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-9142.96694444445</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-9544.96694444445</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-9544.96694444445</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-6317.041144444449</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-16094.62691295274</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-17805.62691295274</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-17805.62691295274</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-17804.62691295274</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-19300.65791295273</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-19300.65791295273</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-27262.32330602503</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-27262.32330602503</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1322.376693974973</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-28465.97845720893</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-28464.88455720893</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-31773.84285720893</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-25497.13185720894</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-25497.13185720894</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-21917.39705720894</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-24687.27125720894</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1901.076257208939</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1888.375170252417</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-2611.375070252417</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-15273.92105720894</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-15273.92105720894</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-14748.57495720894</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-16553.32465720894</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-56607.89755720894</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-56329.60010668015</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-57013.53480668015</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-59581.05390668015</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12100,10 +12100,14 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>171</v>
+      </c>
+      <c r="J355" t="n">
+        <v>171</v>
+      </c>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
@@ -12136,8 +12140,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>171</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +12176,19 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>173</v>
+      </c>
+      <c r="J357" t="n">
+        <v>171</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12269,11 +12287,9 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
         <v>173</v>
       </c>
@@ -12624,9 +12640,11 @@
         <v>-117287.3758066801</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>173</v>
+      </c>
       <c r="J369" t="n">
         <v>173</v>
       </c>
@@ -12663,9 +12681,11 @@
         <v>-117335.1866066801</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>176</v>
+      </c>
       <c r="J370" t="n">
         <v>173</v>
       </c>
@@ -12702,9 +12722,11 @@
         <v>-116934.1866066801</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>175</v>
+      </c>
       <c r="J371" t="n">
         <v>173</v>
       </c>
@@ -12780,9 +12802,11 @@
         <v>-114814.4271066801</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>173</v>
+      </c>
       <c r="J373" t="n">
         <v>173</v>
       </c>
@@ -12819,9 +12843,11 @@
         <v>-114840.4271066801</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>175</v>
+      </c>
       <c r="J374" t="n">
         <v>173</v>
       </c>
@@ -12858,9 +12884,11 @@
         <v>-114840.4271066801</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>174</v>
+      </c>
       <c r="J375" t="n">
         <v>173</v>
       </c>
@@ -12897,9 +12925,11 @@
         <v>-115420.4271066801</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>174</v>
+      </c>
       <c r="J376" t="n">
         <v>173</v>
       </c>
@@ -12936,9 +12966,11 @@
         <v>-115420.4271066801</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>173</v>
+      </c>
       <c r="J377" t="n">
         <v>173</v>
       </c>
@@ -12975,9 +13007,11 @@
         <v>-115419.4271066801</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>173</v>
+      </c>
       <c r="J378" t="n">
         <v>173</v>
       </c>
@@ -13014,9 +13048,11 @@
         <v>-117929.2895066801</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>175</v>
+      </c>
       <c r="J379" t="n">
         <v>173</v>
       </c>
@@ -13053,9 +13089,11 @@
         <v>-117928.2895066801</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>173</v>
+      </c>
       <c r="J380" t="n">
         <v>173</v>
       </c>
@@ -13092,9 +13130,11 @@
         <v>-117928.2895066801</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>174</v>
+      </c>
       <c r="J381" t="n">
         <v>173</v>
       </c>
@@ -13131,9 +13171,11 @@
         <v>-115471.4781066801</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>174</v>
+      </c>
       <c r="J382" t="n">
         <v>173</v>
       </c>
@@ -13170,9 +13212,11 @@
         <v>-115493.1340066801</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>175</v>
+      </c>
       <c r="J383" t="n">
         <v>173</v>
       </c>
@@ -13209,9 +13253,11 @@
         <v>-115493.1340066801</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>173</v>
+      </c>
       <c r="J384" t="n">
         <v>173</v>
       </c>
@@ -13248,9 +13294,11 @@
         <v>-115470.4781066801</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>173</v>
+      </c>
       <c r="J385" t="n">
         <v>173</v>
       </c>
